--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$U$47</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3402,6 +3402,69 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3435,9 +3498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,67 +3507,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,7 +3628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3663,7 +3663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3911,18 +3911,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3930,10 +3930,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4001,22 +4001,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="207" t="s">
+      <c r="X6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="223" t="s">
+      <c r="Y6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="210" t="s">
+      <c r="Z6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4071,16 +4071,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="224"/>
-      <c r="Z7" s="211"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="194"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4135,9 +4135,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="211"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="194"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4209,9 +4209,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="212"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="195"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6884,15 +6884,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="217" t="s">
+      <c r="A46" s="211"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="218"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
-      <c r="G46" s="219"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="204"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6957,25 +6957,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="201" t="s">
+      <c r="X46" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="215">
+      <c r="Y46" s="197"/>
+      <c r="Z46" s="200">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="192"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="220" t="s">
+      <c r="A47" s="213"/>
+      <c r="B47" s="214"/>
+      <c r="C47" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="221"/>
-      <c r="E47" s="221"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="222"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7040,9 +7040,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="205"/>
-      <c r="Y47" s="214"/>
-      <c r="Z47" s="216"/>
+      <c r="X47" s="198"/>
+      <c r="Y47" s="199"/>
+      <c r="Z47" s="201"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7243,6 +7243,11 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7250,11 +7255,6 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7344,18 +7344,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7363,10 +7363,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7416,22 +7416,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="207" t="s">
+      <c r="R6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="223" t="s">
+      <c r="S6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="210" t="s">
+      <c r="T6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7468,16 +7468,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="211"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="194"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7514,9 +7514,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="208"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="211"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="194"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7570,9 +7570,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="212"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="195"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10470,13 +10470,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="226"/>
       <c r="B59" s="227"/>
-      <c r="C59" s="217" t="s">
+      <c r="C59" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="219"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10517,25 +10517,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="201" t="s">
+      <c r="R59" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="213"/>
-      <c r="T59" s="215">
+      <c r="S59" s="197"/>
+      <c r="T59" s="200">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="192"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="220" t="s">
+      <c r="A60" s="213"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="221"/>
-      <c r="E60" s="221"/>
-      <c r="F60" s="221"/>
-      <c r="G60" s="222"/>
+      <c r="D60" s="206"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="207"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10576,12 +10576,17 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="205"/>
-      <c r="S60" s="214"/>
-      <c r="T60" s="216"/>
+      <c r="R60" s="198"/>
+      <c r="S60" s="199"/>
+      <c r="T60" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10589,11 +10594,6 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10703,18 +10703,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10722,10 +10722,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10772,22 +10772,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10821,16 +10821,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="194"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10864,9 +10864,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="194"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10935,9 +10935,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="195"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13357,15 +13357,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="217" t="s">
+      <c r="A55" s="211"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="203"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13426,25 +13426,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="201" t="s">
+      <c r="W55" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="213"/>
-      <c r="Y55" s="215">
+      <c r="X55" s="197"/>
+      <c r="Y55" s="200">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="192"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="220" t="s">
+      <c r="A56" s="213"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13505,12 +13505,17 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="205"/>
-      <c r="X56" s="214"/>
-      <c r="Y56" s="216"/>
+      <c r="W56" s="198"/>
+      <c r="X56" s="199"/>
+      <c r="Y56" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13518,11 +13523,6 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13612,18 +13612,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13631,10 +13631,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13643,13 +13643,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13673,22 +13673,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13714,16 +13714,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="194"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13749,9 +13749,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="194"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13820,9 +13820,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="195"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15714,10 +15714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17916,9 +17917,15 @@
         <f t="shared" ref="O47" si="4">COUNTIF(O10:O46,"p")</f>
         <v>11</v>
       </c>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="149"/>
-      <c r="R47" s="149"/>
+      <c r="P47" s="149">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="149">
+        <v>15</v>
+      </c>
+      <c r="R47" s="149">
+        <v>15</v>
+      </c>
       <c r="S47" s="149">
         <f>COUNTIF(I47:J47,"P")</f>
         <v>0</v>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$U$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$V$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="598">
   <si>
     <t>S No</t>
   </si>
@@ -3402,6 +3402,57 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,15 +3471,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3463,51 +3508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,18 +3911,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3930,10 +3930,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4001,22 +4001,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="190" t="s">
+      <c r="X6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="208" t="s">
+      <c r="Y6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="193" t="s">
+      <c r="Z6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4071,16 +4071,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="194"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="224"/>
+      <c r="Z7" s="211"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4135,9 +4135,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="209"/>
-      <c r="Z8" s="194"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="224"/>
+      <c r="Z8" s="211"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4209,9 +4209,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="210"/>
-      <c r="Z9" s="195"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="225"/>
+      <c r="Z9" s="212"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6884,15 +6884,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="211"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="202" t="s">
+      <c r="A46" s="190"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="203"/>
-      <c r="E46" s="203"/>
-      <c r="F46" s="203"/>
-      <c r="G46" s="204"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
+      <c r="G46" s="219"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6957,25 +6957,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="196" t="s">
+      <c r="X46" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="197"/>
-      <c r="Z46" s="200">
+      <c r="Y46" s="213"/>
+      <c r="Z46" s="215">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="213"/>
-      <c r="B47" s="214"/>
-      <c r="C47" s="205" t="s">
+      <c r="A47" s="192"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="222"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7040,9 +7040,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="198"/>
-      <c r="Y47" s="199"/>
-      <c r="Z47" s="201"/>
+      <c r="X47" s="205"/>
+      <c r="Y47" s="214"/>
+      <c r="Z47" s="216"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7243,11 +7243,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7255,6 +7250,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7344,18 +7344,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7363,10 +7363,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7416,22 +7416,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="190" t="s">
+      <c r="R6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="208" t="s">
+      <c r="S6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="193" t="s">
+      <c r="T6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7468,16 +7468,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="209"/>
-      <c r="T7" s="194"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="224"/>
+      <c r="T7" s="211"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7514,9 +7514,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="194"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="211"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7570,9 +7570,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="192"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="195"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="225"/>
+      <c r="T9" s="212"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10470,13 +10470,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="226"/>
       <c r="B59" s="227"/>
-      <c r="C59" s="202" t="s">
+      <c r="C59" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="204"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="219"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10517,25 +10517,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="196" t="s">
+      <c r="R59" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="197"/>
-      <c r="T59" s="200">
+      <c r="S59" s="213"/>
+      <c r="T59" s="215">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="213"/>
-      <c r="B60" s="214"/>
-      <c r="C60" s="205" t="s">
+      <c r="A60" s="192"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="206"/>
-      <c r="E60" s="206"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="207"/>
+      <c r="D60" s="221"/>
+      <c r="E60" s="221"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="222"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10576,17 +10576,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="198"/>
-      <c r="S60" s="199"/>
-      <c r="T60" s="201"/>
+      <c r="R60" s="205"/>
+      <c r="S60" s="214"/>
+      <c r="T60" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10594,6 +10589,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10703,18 +10703,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10722,10 +10722,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10772,22 +10772,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="190" t="s">
+      <c r="W6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="208" t="s">
+      <c r="X6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="193" t="s">
+      <c r="Y6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10821,16 +10821,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="194"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="224"/>
+      <c r="Y7" s="211"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10864,9 +10864,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="194"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="224"/>
+      <c r="Y8" s="211"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10935,9 +10935,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="192"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="195"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="212"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13357,15 +13357,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="211"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="202" t="s">
+      <c r="A55" s="190"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
+      <c r="G55" s="218"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13426,25 +13426,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="196" t="s">
+      <c r="W55" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="197"/>
-      <c r="Y55" s="200">
+      <c r="X55" s="213"/>
+      <c r="Y55" s="215">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="213"/>
-      <c r="B56" s="214"/>
-      <c r="C56" s="205" t="s">
+      <c r="A56" s="192"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
+      <c r="D56" s="221"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13505,17 +13505,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="198"/>
-      <c r="X56" s="199"/>
-      <c r="Y56" s="201"/>
+      <c r="W56" s="205"/>
+      <c r="X56" s="214"/>
+      <c r="Y56" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13523,6 +13518,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13612,18 +13612,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13631,10 +13631,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13643,13 +13643,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13673,22 +13673,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="190" t="s">
+      <c r="W6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="208" t="s">
+      <c r="X6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="193" t="s">
+      <c r="Y6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13714,16 +13714,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="194"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="224"/>
+      <c r="Y7" s="211"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13749,9 +13749,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="194"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="224"/>
+      <c r="Y8" s="211"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13820,9 +13820,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="192"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="195"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="212"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15712,13 +15712,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15736,15 +15736,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="18" width="11.28515625" style="77" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="77" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="77" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="19" width="11.28515625" style="77" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="77" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="77" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:21" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:22" ht="13.5" thickBot="1">
       <c r="B2" s="229" t="s">
         <v>17</v>
       </c>
@@ -15752,29 +15752,29 @@
       <c r="D2" s="231"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="B3" s="232" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="233"/>
       <c r="D3" s="135">
-        <f>SUM(I8:R8)</f>
-        <v>30</v>
+        <f>SUM(I8:S8)</f>
+        <v>33</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" thickBot="1">
+    <row r="4" spans="1:22" ht="13.5" thickBot="1">
       <c r="B4" s="234" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="235"/>
       <c r="D4" s="137">
-        <f>U47</f>
-        <v>40.960960960960961</v>
+        <f>V47</f>
+        <v>38.94348894348893</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="236" t="s">
         <v>595</v>
       </c>
@@ -15817,17 +15817,20 @@
       <c r="R6" s="139">
         <v>42409</v>
       </c>
-      <c r="S6" s="237" t="s">
+      <c r="S6" s="139">
+        <v>42412</v>
+      </c>
+      <c r="T6" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="237" t="s">
+      <c r="U6" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="228" t="s">
+      <c r="V6" s="228" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="236"/>
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
@@ -15868,11 +15871,14 @@
       <c r="R7" s="142" t="s">
         <v>596</v>
       </c>
-      <c r="S7" s="237"/>
+      <c r="S7" s="142" t="s">
+        <v>596</v>
+      </c>
       <c r="T7" s="237"/>
-      <c r="U7" s="228"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="U7" s="237"/>
+      <c r="V7" s="228"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="236"/>
       <c r="B8" s="236"/>
       <c r="C8" s="236"/>
@@ -15915,11 +15921,14 @@
       <c r="R8" s="159">
         <v>3</v>
       </c>
-      <c r="S8" s="237"/>
+      <c r="S8" s="159">
+        <v>3</v>
+      </c>
       <c r="T8" s="237"/>
-      <c r="U8" s="228"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.5" thickBot="1">
+      <c r="U8" s="237"/>
+      <c r="V8" s="228"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15974,11 +15983,14 @@
       <c r="R9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="S9" s="237"/>
+      <c r="S9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="T9" s="237"/>
-      <c r="U9" s="228"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="U9" s="237"/>
+      <c r="V9" s="228"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16031,20 +16043,23 @@
       <c r="R10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="143">
-        <f t="shared" ref="S10:S46" si="0">COUNTIF(I10:R10,"P")</f>
-        <v>10</v>
-      </c>
-      <c r="T10" s="146">
-        <f t="shared" ref="T10:T46" si="1">COUNTBLANK(I10:R10)</f>
+      <c r="S10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="143">
+        <f t="shared" ref="T10:T46" si="0">COUNTIF(I10:S10,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="U10" s="146">
+        <f t="shared" ref="U10:U46" si="1">COUNTBLANK(I10:S10)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="156">
-        <f>S10*100/SUM(S10:T10)</f>
+      <c r="V10" s="156">
+        <f>T10*100/SUM(T10:U10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16097,20 +16112,23 @@
       <c r="R11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="143">
+      <c r="S11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T11" s="146">
+        <v>11</v>
+      </c>
+      <c r="U11" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="156">
-        <f>S11*100/SUM(S11:T11)</f>
+      <c r="V11" s="156">
+        <f>T11*100/SUM(T11:U11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16141,20 +16159,21 @@
       <c r="P12" s="143"/>
       <c r="Q12" s="143"/>
       <c r="R12" s="143"/>
-      <c r="S12" s="143">
+      <c r="S12" s="143"/>
+      <c r="T12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T12" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U12" s="156">
-        <f t="shared" ref="U12:U46" si="2">S12*100/SUM(S12:T12)</f>
+      <c r="U12" s="146">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="V12" s="156">
+        <f t="shared" ref="V12:V46" si="2">T12*100/SUM(T12:U12)</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16207,20 +16226,23 @@
       <c r="R13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="143">
+      <c r="S13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T13" s="146">
+        <v>11</v>
+      </c>
+      <c r="U13" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="156">
+      <c r="V13" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16261,20 +16283,21 @@
       <c r="R14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="143">
+      <c r="S14" s="143"/>
+      <c r="T14" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T14" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="U14" s="156">
+      <c r="U14" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V14" s="156">
         <f t="shared" si="2"/>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16313,20 +16336,21 @@
       <c r="R15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="143">
+      <c r="S15" s="143"/>
+      <c r="T15" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T15" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U15" s="156">
+      <c r="U15" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V15" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="179" customFormat="1" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="179" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16359,20 +16383,21 @@
       <c r="P16" s="175"/>
       <c r="Q16" s="175"/>
       <c r="R16" s="175"/>
-      <c r="S16" s="143">
+      <c r="S16" s="175"/>
+      <c r="T16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="177">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="178">
+      <c r="U16" s="177">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V16" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16421,20 +16446,23 @@
       <c r="R17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S17" s="143">
+      <c r="S17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T17" s="146">
+        <v>9</v>
+      </c>
+      <c r="U17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U17" s="156">
+      <c r="V17" s="156">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16485,20 +16513,23 @@
       <c r="R18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S18" s="143">
+      <c r="S18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T18" s="146">
+        <v>10</v>
+      </c>
+      <c r="U18" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U18" s="156">
+      <c r="V18" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16549,20 +16580,21 @@
       <c r="R19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S19" s="143">
+      <c r="S19" s="143"/>
+      <c r="T19" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T19" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="156">
+      <c r="U19" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V19" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16601,20 +16633,21 @@
       <c r="P20" s="143"/>
       <c r="Q20" s="143"/>
       <c r="R20" s="143"/>
-      <c r="S20" s="143">
+      <c r="S20" s="143"/>
+      <c r="T20" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T20" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U20" s="156">
+      <c r="U20" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V20" s="156">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16653,20 +16686,21 @@
       <c r="P21" s="143"/>
       <c r="Q21" s="143"/>
       <c r="R21" s="143"/>
-      <c r="S21" s="143">
+      <c r="S21" s="143"/>
+      <c r="T21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T21" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U21" s="156">
+      <c r="U21" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V21" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16719,20 +16753,23 @@
       <c r="R22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S22" s="143">
+      <c r="S22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T22" s="146">
+        <v>11</v>
+      </c>
+      <c r="U22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="156">
+      <c r="V22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16773,20 +16810,21 @@
         <v>104</v>
       </c>
       <c r="R23" s="143"/>
-      <c r="S23" s="143">
+      <c r="S23" s="143"/>
+      <c r="T23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T23" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U23" s="156">
+      <c r="U23" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V23" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16829,20 +16867,21 @@
       <c r="R24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="143">
+      <c r="S24" s="143"/>
+      <c r="T24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T24" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U24" s="156">
+      <c r="U24" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V24" s="156">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16893,20 +16932,21 @@
       <c r="R25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S25" s="143">
+      <c r="S25" s="143"/>
+      <c r="T25" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T25" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="156">
+      <c r="U25" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V25" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16957,20 +16997,21 @@
       <c r="R26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S26" s="143">
+      <c r="S26" s="143"/>
+      <c r="T26" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T26" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="156">
+      <c r="U26" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V26" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17005,20 +17046,21 @@
       <c r="P27" s="143"/>
       <c r="Q27" s="143"/>
       <c r="R27" s="143"/>
-      <c r="S27" s="143">
+      <c r="S27" s="143"/>
+      <c r="T27" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T27" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U27" s="156">
+      <c r="U27" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V27" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17047,20 +17089,21 @@
       <c r="P28" s="143"/>
       <c r="Q28" s="143"/>
       <c r="R28" s="143"/>
-      <c r="S28" s="143">
+      <c r="S28" s="143"/>
+      <c r="T28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T28" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U28" s="156">
+      <c r="U28" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+    <row r="29" spans="1:22" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17107,20 +17150,23 @@
       <c r="R29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S29" s="143">
+      <c r="S29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T29" s="146">
+        <v>8</v>
+      </c>
+      <c r="U29" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U29" s="156">
+      <c r="V29" s="156">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+        <v>72.727272727272734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17159,20 +17205,21 @@
       </c>
       <c r="Q30" s="143"/>
       <c r="R30" s="143"/>
-      <c r="S30" s="143">
+      <c r="S30" s="143"/>
+      <c r="T30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T30" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U30" s="156">
+      <c r="U30" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V30" s="156">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17201,20 +17248,21 @@
       <c r="P31" s="143"/>
       <c r="Q31" s="143"/>
       <c r="R31" s="143"/>
-      <c r="S31" s="143">
+      <c r="S31" s="143"/>
+      <c r="T31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T31" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U31" s="156">
+      <c r="U31" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17247,20 +17295,21 @@
       <c r="P32" s="143"/>
       <c r="Q32" s="143"/>
       <c r="R32" s="143"/>
-      <c r="S32" s="143">
+      <c r="S32" s="143"/>
+      <c r="T32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T32" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U32" s="156">
+      <c r="U32" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V32" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17307,20 +17356,21 @@
         <v>104</v>
       </c>
       <c r="R33" s="143"/>
-      <c r="S33" s="143">
+      <c r="S33" s="143"/>
+      <c r="T33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T33" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="156">
+      <c r="U33" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V33" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17349,20 +17399,21 @@
       <c r="P34" s="143"/>
       <c r="Q34" s="143"/>
       <c r="R34" s="143"/>
-      <c r="S34" s="143">
+      <c r="S34" s="143"/>
+      <c r="T34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T34" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U34" s="156">
+      <c r="U34" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+    <row r="35" spans="1:22" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17393,20 +17444,21 @@
       <c r="P35" s="143"/>
       <c r="Q35" s="143"/>
       <c r="R35" s="143"/>
-      <c r="S35" s="143">
+      <c r="S35" s="143"/>
+      <c r="T35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T35" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U35" s="156">
+      <c r="U35" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V35" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17437,20 +17489,21 @@
       <c r="P36" s="143"/>
       <c r="Q36" s="143"/>
       <c r="R36" s="143"/>
-      <c r="S36" s="143">
+      <c r="S36" s="143"/>
+      <c r="T36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T36" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U36" s="156">
+      <c r="U36" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V36" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17479,20 +17532,21 @@
       <c r="P37" s="143"/>
       <c r="Q37" s="143"/>
       <c r="R37" s="143"/>
-      <c r="S37" s="143">
+      <c r="S37" s="143"/>
+      <c r="T37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T37" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U37" s="156">
+      <c r="U37" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+    <row r="38" spans="1:22" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17521,20 +17575,21 @@
       <c r="P38" s="143"/>
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
-      <c r="S38" s="143">
+      <c r="S38" s="143"/>
+      <c r="T38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T38" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U38" s="156">
+      <c r="U38" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1">
+    <row r="39" spans="1:22" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -17563,20 +17618,21 @@
       <c r="P39" s="143"/>
       <c r="Q39" s="143"/>
       <c r="R39" s="143"/>
-      <c r="S39" s="143">
+      <c r="S39" s="143"/>
+      <c r="T39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T39" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U39" s="156">
+      <c r="U39" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1">
+    <row r="40" spans="1:22" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -17617,20 +17673,21 @@
       <c r="R40" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S40" s="143">
+      <c r="S40" s="143"/>
+      <c r="T40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T40" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U40" s="156">
+      <c r="U40" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V40" s="156">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1">
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -17659,20 +17716,21 @@
       <c r="P41" s="143"/>
       <c r="Q41" s="143"/>
       <c r="R41" s="143"/>
-      <c r="S41" s="143">
-        <f>COUNTIF(I41:R41,"P")</f>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143">
+        <f>COUNTIF(I41:S41,"P")</f>
         <v>0</v>
       </c>
-      <c r="T41" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U41" s="156">
+      <c r="U41" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1">
+    <row r="42" spans="1:22" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -17713,20 +17771,21 @@
       <c r="R42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S42" s="143">
+      <c r="S42" s="143"/>
+      <c r="T42" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T42" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U42" s="156">
+      <c r="U42" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V42" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -17763,20 +17822,21 @@
       <c r="P43" s="143"/>
       <c r="Q43" s="143"/>
       <c r="R43" s="143"/>
-      <c r="S43" s="143">
+      <c r="S43" s="143"/>
+      <c r="T43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T43" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U43" s="156">
+      <c r="U43" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V43" s="156">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -17797,20 +17857,21 @@
       <c r="P44" s="143"/>
       <c r="Q44" s="143"/>
       <c r="R44" s="143"/>
-      <c r="S44" s="143">
+      <c r="S44" s="143"/>
+      <c r="T44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T44" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U44" s="156">
+      <c r="U44" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -17831,20 +17892,21 @@
       <c r="P45" s="143"/>
       <c r="Q45" s="143"/>
       <c r="R45" s="143"/>
-      <c r="S45" s="143">
+      <c r="S45" s="143"/>
+      <c r="T45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T45" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U45" s="156">
+      <c r="U45" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -17865,20 +17927,21 @@
       <c r="P46" s="143"/>
       <c r="Q46" s="143"/>
       <c r="R46" s="143"/>
-      <c r="S46" s="143">
+      <c r="S46" s="143"/>
+      <c r="T46" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T46" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U46" s="156">
+      <c r="U46" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -17927,28 +17990,31 @@
         <v>15</v>
       </c>
       <c r="S47" s="149">
+        <v>7</v>
+      </c>
+      <c r="T47" s="149">
         <f>COUNTIF(I47:J47,"P")</f>
         <v>0</v>
       </c>
-      <c r="T47" s="150">
+      <c r="U47" s="150">
         <f>COUNTBLANK(I47:M47)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="157">
-        <f>AVERAGE(U10:U46)</f>
-        <v>40.960960960960961</v>
+      <c r="V47" s="157">
+        <f>AVERAGE(V10:V46)</f>
+        <v>38.94348894348893</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:U47"/>
+  <autoFilter ref="A9:V47"/>
   <mergeCells count="7">
-    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="V6:V9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="S6:S9"/>
     <mergeCell ref="T6:T9"/>
+    <mergeCell ref="U6:U9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fine arts" sheetId="3" state="hidden" r:id="rId1"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$V$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$W$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="598">
   <si>
     <t>S No</t>
   </si>
@@ -3402,6 +3402,69 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3435,9 +3498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,67 +3507,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,7 +3628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3663,7 +3663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3911,18 +3911,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3930,10 +3930,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4001,22 +4001,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="207" t="s">
+      <c r="X6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="223" t="s">
+      <c r="Y6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="210" t="s">
+      <c r="Z6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4071,16 +4071,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="224"/>
-      <c r="Z7" s="211"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="194"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4135,9 +4135,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="211"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="194"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4209,9 +4209,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="212"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="195"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6884,15 +6884,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="217" t="s">
+      <c r="A46" s="211"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="218"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
-      <c r="G46" s="219"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="204"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6957,25 +6957,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="201" t="s">
+      <c r="X46" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="215">
+      <c r="Y46" s="197"/>
+      <c r="Z46" s="200">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="192"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="220" t="s">
+      <c r="A47" s="213"/>
+      <c r="B47" s="214"/>
+      <c r="C47" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="221"/>
-      <c r="E47" s="221"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="222"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7040,9 +7040,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="205"/>
-      <c r="Y47" s="214"/>
-      <c r="Z47" s="216"/>
+      <c r="X47" s="198"/>
+      <c r="Y47" s="199"/>
+      <c r="Z47" s="201"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7243,6 +7243,11 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7250,11 +7255,6 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7344,18 +7344,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7363,10 +7363,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7416,22 +7416,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="207" t="s">
+      <c r="R6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="223" t="s">
+      <c r="S6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="210" t="s">
+      <c r="T6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7468,16 +7468,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="211"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="194"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7514,9 +7514,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="208"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="211"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="194"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7570,9 +7570,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="212"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="195"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10470,13 +10470,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="226"/>
       <c r="B59" s="227"/>
-      <c r="C59" s="217" t="s">
+      <c r="C59" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="219"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10517,25 +10517,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="201" t="s">
+      <c r="R59" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="213"/>
-      <c r="T59" s="215">
+      <c r="S59" s="197"/>
+      <c r="T59" s="200">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="192"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="220" t="s">
+      <c r="A60" s="213"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="221"/>
-      <c r="E60" s="221"/>
-      <c r="F60" s="221"/>
-      <c r="G60" s="222"/>
+      <c r="D60" s="206"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="207"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10576,12 +10576,17 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="205"/>
-      <c r="S60" s="214"/>
-      <c r="T60" s="216"/>
+      <c r="R60" s="198"/>
+      <c r="S60" s="199"/>
+      <c r="T60" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10589,11 +10594,6 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10703,18 +10703,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10722,10 +10722,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10772,22 +10772,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10821,16 +10821,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="194"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10864,9 +10864,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="194"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10935,9 +10935,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="195"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13357,15 +13357,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="217" t="s">
+      <c r="A55" s="211"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="203"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13426,25 +13426,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="201" t="s">
+      <c r="W55" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="213"/>
-      <c r="Y55" s="215">
+      <c r="X55" s="197"/>
+      <c r="Y55" s="200">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="192"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="220" t="s">
+      <c r="A56" s="213"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13505,12 +13505,17 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="205"/>
-      <c r="X56" s="214"/>
-      <c r="Y56" s="216"/>
+      <c r="W56" s="198"/>
+      <c r="X56" s="199"/>
+      <c r="Y56" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13518,11 +13523,6 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13612,18 +13612,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13631,10 +13631,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13643,13 +13643,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13673,22 +13673,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="193" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13714,16 +13714,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="194"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13749,9 +13749,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="194"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13820,9 +13820,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="195"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15712,13 +15712,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S47" sqref="S47"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15736,15 +15736,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="19" width="11.28515625" style="77" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="77" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="77" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="20" width="11.28515625" style="77" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="77" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:23" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:23" ht="13.5" thickBot="1">
       <c r="B2" s="229" t="s">
         <v>17</v>
       </c>
@@ -15752,29 +15752,29 @@
       <c r="D2" s="231"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="B3" s="232" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="233"/>
       <c r="D3" s="135">
-        <f>SUM(I8:S8)</f>
-        <v>33</v>
+        <f>SUM(I8:T8)</f>
+        <v>36</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:22" ht="13.5" thickBot="1">
+    <row r="4" spans="1:23" ht="13.5" thickBot="1">
       <c r="B4" s="234" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="235"/>
       <c r="D4" s="137">
-        <f>V47</f>
-        <v>38.94348894348893</v>
+        <f>W47</f>
+        <v>38.615888615888608</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:23" ht="15">
       <c r="A6" s="236" t="s">
         <v>595</v>
       </c>
@@ -15820,17 +15820,20 @@
       <c r="S6" s="139">
         <v>42412</v>
       </c>
-      <c r="T6" s="237" t="s">
+      <c r="T6" s="139">
+        <v>42414</v>
+      </c>
+      <c r="U6" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="237" t="s">
+      <c r="V6" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="228" t="s">
+      <c r="W6" s="228" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="236"/>
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
@@ -15874,11 +15877,14 @@
       <c r="S7" s="142" t="s">
         <v>596</v>
       </c>
-      <c r="T7" s="237"/>
+      <c r="T7" s="142" t="s">
+        <v>596</v>
+      </c>
       <c r="U7" s="237"/>
-      <c r="V7" s="228"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="V7" s="237"/>
+      <c r="W7" s="228"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="236"/>
       <c r="B8" s="236"/>
       <c r="C8" s="236"/>
@@ -15924,11 +15930,14 @@
       <c r="S8" s="159">
         <v>3</v>
       </c>
-      <c r="T8" s="237"/>
+      <c r="T8" s="159">
+        <v>3</v>
+      </c>
       <c r="U8" s="237"/>
-      <c r="V8" s="228"/>
-    </row>
-    <row r="9" spans="1:22" ht="13.5" thickBot="1">
+      <c r="V8" s="237"/>
+      <c r="W8" s="228"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15986,11 +15995,14 @@
       <c r="S9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="T9" s="237"/>
+      <c r="T9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="U9" s="237"/>
-      <c r="V9" s="228"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+      <c r="V9" s="237"/>
+      <c r="W9" s="228"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16046,20 +16058,23 @@
       <c r="S10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="143">
-        <f t="shared" ref="T10:T46" si="0">COUNTIF(I10:S10,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="U10" s="146">
-        <f t="shared" ref="U10:U46" si="1">COUNTBLANK(I10:S10)</f>
+      <c r="T10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="143">
+        <f t="shared" ref="U10:U46" si="0">COUNTIF(I10:T10,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="V10" s="146">
+        <f t="shared" ref="V10:V46" si="1">COUNTBLANK(I10:T10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="156">
-        <f>T10*100/SUM(T10:U10)</f>
+      <c r="W10" s="156">
+        <f>U10*100/SUM(U10:V10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16115,20 +16130,23 @@
       <c r="S11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="143">
+      <c r="T11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U11" s="146">
+        <v>12</v>
+      </c>
+      <c r="V11" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="156">
-        <f>T11*100/SUM(T11:U11)</f>
+      <c r="W11" s="156">
+        <f>U11*100/SUM(U11:V11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16160,20 +16178,21 @@
       <c r="Q12" s="143"/>
       <c r="R12" s="143"/>
       <c r="S12" s="143"/>
-      <c r="T12" s="143">
+      <c r="T12" s="143"/>
+      <c r="U12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U12" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V12" s="156">
-        <f t="shared" ref="V12:V46" si="2">T12*100/SUM(T12:U12)</f>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+      <c r="V12" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W12" s="156">
+        <f t="shared" ref="W12:W46" si="2">U12*100/SUM(U12:V12)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16229,20 +16248,23 @@
       <c r="S13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="143">
+      <c r="T13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U13" s="146">
+        <v>12</v>
+      </c>
+      <c r="V13" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="156">
+      <c r="W13" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16284,20 +16306,21 @@
         <v>104</v>
       </c>
       <c r="S14" s="143"/>
-      <c r="T14" s="143">
+      <c r="T14" s="143"/>
+      <c r="U14" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U14" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V14" s="156">
+      <c r="V14" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W14" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16337,20 +16360,21 @@
         <v>104</v>
       </c>
       <c r="S15" s="143"/>
-      <c r="T15" s="143">
+      <c r="T15" s="143"/>
+      <c r="U15" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U15" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V15" s="156">
+      <c r="V15" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W15" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="179" customFormat="1" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="179" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16384,20 +16408,21 @@
       <c r="Q16" s="175"/>
       <c r="R16" s="175"/>
       <c r="S16" s="175"/>
-      <c r="T16" s="143">
+      <c r="T16" s="175"/>
+      <c r="U16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="177">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V16" s="178">
+      <c r="V16" s="177">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W16" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16449,20 +16474,23 @@
       <c r="S17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="143">
+      <c r="T17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U17" s="146">
+        <v>10</v>
+      </c>
+      <c r="V17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V17" s="156">
+      <c r="W17" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16516,20 +16544,23 @@
       <c r="S18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="143">
+      <c r="T18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U18" s="146">
+        <v>11</v>
+      </c>
+      <c r="V18" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V18" s="156">
+      <c r="W18" s="156">
         <f t="shared" si="2"/>
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16580,21 +16611,26 @@
       <c r="R19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143">
+      <c r="S19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U19" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U19" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="156">
+        <v>11</v>
+      </c>
+      <c r="V19" s="146">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16634,20 +16670,21 @@
       <c r="Q20" s="143"/>
       <c r="R20" s="143"/>
       <c r="S20" s="143"/>
-      <c r="T20" s="143">
+      <c r="T20" s="143"/>
+      <c r="U20" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U20" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V20" s="156">
+      <c r="V20" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="W20" s="156">
         <f t="shared" si="2"/>
-        <v>36.363636363636367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16687,20 +16724,21 @@
       <c r="Q21" s="143"/>
       <c r="R21" s="143"/>
       <c r="S21" s="143"/>
-      <c r="T21" s="143">
+      <c r="T21" s="143"/>
+      <c r="U21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U21" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V21" s="156">
+      <c r="V21" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W21" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16756,20 +16794,23 @@
       <c r="S22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T22" s="143">
+      <c r="T22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U22" s="146">
+        <v>12</v>
+      </c>
+      <c r="V22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V22" s="156">
+      <c r="W22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16811,20 +16852,21 @@
       </c>
       <c r="R23" s="143"/>
       <c r="S23" s="143"/>
-      <c r="T23" s="143">
+      <c r="T23" s="143"/>
+      <c r="U23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U23" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V23" s="156">
+      <c r="V23" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W23" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16868,20 +16910,21 @@
         <v>104</v>
       </c>
       <c r="S24" s="143"/>
-      <c r="T24" s="143">
+      <c r="T24" s="143"/>
+      <c r="U24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U24" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V24" s="156">
+      <c r="V24" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W24" s="156">
         <f t="shared" si="2"/>
-        <v>63.636363636363633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16932,21 +16975,26 @@
       <c r="R25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143">
+      <c r="S25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U25" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U25" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V25" s="156">
+        <v>11</v>
+      </c>
+      <c r="V25" s="146">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16997,21 +17045,26 @@
       <c r="R26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143">
+      <c r="S26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U26" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U26" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V26" s="156">
+        <v>11</v>
+      </c>
+      <c r="V26" s="146">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W26" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17047,20 +17100,21 @@
       <c r="Q27" s="143"/>
       <c r="R27" s="143"/>
       <c r="S27" s="143"/>
-      <c r="T27" s="143">
+      <c r="T27" s="143"/>
+      <c r="U27" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U27" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V27" s="156">
+      <c r="V27" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W27" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17090,20 +17144,21 @@
       <c r="Q28" s="143"/>
       <c r="R28" s="143"/>
       <c r="S28" s="143"/>
-      <c r="T28" s="143">
+      <c r="T28" s="143"/>
+      <c r="U28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U28" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V28" s="156">
+      <c r="V28" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" thickBot="1">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17153,20 +17208,23 @@
       <c r="S29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T29" s="143">
+      <c r="T29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U29" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U29" s="146">
+        <v>9</v>
+      </c>
+      <c r="V29" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V29" s="156">
+      <c r="W29" s="156">
         <f t="shared" si="2"/>
-        <v>72.727272727272734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17206,20 +17264,21 @@
       <c r="Q30" s="143"/>
       <c r="R30" s="143"/>
       <c r="S30" s="143"/>
-      <c r="T30" s="143">
+      <c r="T30" s="143"/>
+      <c r="U30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U30" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="V30" s="156">
+      <c r="V30" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="W30" s="156">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17249,20 +17308,21 @@
       <c r="Q31" s="143"/>
       <c r="R31" s="143"/>
       <c r="S31" s="143"/>
-      <c r="T31" s="143">
+      <c r="T31" s="143"/>
+      <c r="U31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U31" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V31" s="156">
+      <c r="V31" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17296,20 +17356,21 @@
       <c r="Q32" s="143"/>
       <c r="R32" s="143"/>
       <c r="S32" s="143"/>
-      <c r="T32" s="143">
+      <c r="T32" s="143"/>
+      <c r="U32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U32" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V32" s="156">
+      <c r="V32" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W32" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17357,20 +17418,21 @@
       </c>
       <c r="R33" s="143"/>
       <c r="S33" s="143"/>
-      <c r="T33" s="143">
+      <c r="T33" s="143"/>
+      <c r="U33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U33" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V33" s="156">
+      <c r="V33" s="146">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W33" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17400,20 +17462,21 @@
       <c r="Q34" s="143"/>
       <c r="R34" s="143"/>
       <c r="S34" s="143"/>
-      <c r="T34" s="143">
+      <c r="T34" s="143"/>
+      <c r="U34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U34" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V34" s="156">
+      <c r="V34" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17445,20 +17508,21 @@
       <c r="Q35" s="143"/>
       <c r="R35" s="143"/>
       <c r="S35" s="143"/>
-      <c r="T35" s="143">
+      <c r="T35" s="143"/>
+      <c r="U35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U35" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V35" s="156">
+      <c r="V35" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W35" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17490,20 +17554,21 @@
       <c r="Q36" s="143"/>
       <c r="R36" s="143"/>
       <c r="S36" s="143"/>
-      <c r="T36" s="143">
+      <c r="T36" s="143"/>
+      <c r="U36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U36" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V36" s="156">
+      <c r="V36" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W36" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17533,20 +17598,21 @@
       <c r="Q37" s="143"/>
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
-      <c r="T37" s="143">
+      <c r="T37" s="143"/>
+      <c r="U37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U37" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V37" s="156">
+      <c r="V37" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17576,20 +17642,21 @@
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
-      <c r="T38" s="143">
+      <c r="T38" s="143"/>
+      <c r="U38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U38" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V38" s="156">
+      <c r="V38" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" thickBot="1">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -17619,20 +17686,21 @@
       <c r="Q39" s="143"/>
       <c r="R39" s="143"/>
       <c r="S39" s="143"/>
-      <c r="T39" s="143">
+      <c r="T39" s="143"/>
+      <c r="U39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U39" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V39" s="156">
+      <c r="V39" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" thickBot="1">
+    <row r="40" spans="1:23" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -17674,20 +17742,21 @@
         <v>104</v>
       </c>
       <c r="S40" s="143"/>
-      <c r="T40" s="143">
+      <c r="T40" s="143"/>
+      <c r="U40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U40" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V40" s="156">
+      <c r="V40" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="W40" s="156">
         <f t="shared" si="2"/>
-        <v>36.363636363636367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -17717,20 +17786,21 @@
       <c r="Q41" s="143"/>
       <c r="R41" s="143"/>
       <c r="S41" s="143"/>
-      <c r="T41" s="143">
-        <f>COUNTIF(I41:S41,"P")</f>
+      <c r="T41" s="143"/>
+      <c r="U41" s="143">
+        <f>COUNTIF(I41:T41,"P")</f>
         <v>0</v>
       </c>
-      <c r="U41" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V41" s="156">
+      <c r="V41" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" thickBot="1">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -17772,20 +17842,21 @@
         <v>104</v>
       </c>
       <c r="S42" s="143"/>
-      <c r="T42" s="143">
+      <c r="T42" s="143"/>
+      <c r="U42" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U42" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V42" s="156">
+      <c r="V42" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W42" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -17823,20 +17894,21 @@
       <c r="Q43" s="143"/>
       <c r="R43" s="143"/>
       <c r="S43" s="143"/>
-      <c r="T43" s="143">
+      <c r="T43" s="143"/>
+      <c r="U43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U43" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="V43" s="156">
+      <c r="V43" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="W43" s="156">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -17858,20 +17930,21 @@
       <c r="Q44" s="143"/>
       <c r="R44" s="143"/>
       <c r="S44" s="143"/>
-      <c r="T44" s="143">
+      <c r="T44" s="143"/>
+      <c r="U44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U44" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V44" s="156">
+      <c r="V44" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -17893,20 +17966,21 @@
       <c r="Q45" s="143"/>
       <c r="R45" s="143"/>
       <c r="S45" s="143"/>
-      <c r="T45" s="143">
+      <c r="T45" s="143"/>
+      <c r="U45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U45" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V45" s="156">
+      <c r="V45" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -17928,20 +18002,21 @@
       <c r="Q46" s="143"/>
       <c r="R46" s="143"/>
       <c r="S46" s="143"/>
-      <c r="T46" s="143">
+      <c r="T46" s="143"/>
+      <c r="U46" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U46" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V46" s="156">
+      <c r="V46" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -17990,31 +18065,34 @@
         <v>15</v>
       </c>
       <c r="S47" s="149">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T47" s="149">
+        <v>10</v>
+      </c>
+      <c r="U47" s="149">
         <f>COUNTIF(I47:J47,"P")</f>
         <v>0</v>
       </c>
-      <c r="U47" s="150">
+      <c r="V47" s="150">
         <f>COUNTBLANK(I47:M47)</f>
         <v>0</v>
       </c>
-      <c r="V47" s="157">
-        <f>AVERAGE(V10:V46)</f>
-        <v>38.94348894348893</v>
+      <c r="W47" s="157">
+        <f>AVERAGE(W10:W46)</f>
+        <v>38.615888615888608</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V47"/>
+  <autoFilter ref="A9:W47"/>
   <mergeCells count="7">
-    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="T6:T9"/>
     <mergeCell ref="U6:U9"/>
+    <mergeCell ref="V6:V9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$W$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$X$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="598">
   <si>
     <t>S No</t>
   </si>
@@ -3402,6 +3402,57 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,15 +3471,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3463,51 +3508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,18 +3911,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3930,10 +3930,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4001,22 +4001,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="190" t="s">
+      <c r="X6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="208" t="s">
+      <c r="Y6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="193" t="s">
+      <c r="Z6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4071,16 +4071,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="194"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="224"/>
+      <c r="Z7" s="211"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4135,9 +4135,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="209"/>
-      <c r="Z8" s="194"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="224"/>
+      <c r="Z8" s="211"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4209,9 +4209,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="210"/>
-      <c r="Z9" s="195"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="225"/>
+      <c r="Z9" s="212"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6884,15 +6884,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="211"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="202" t="s">
+      <c r="A46" s="190"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="203"/>
-      <c r="E46" s="203"/>
-      <c r="F46" s="203"/>
-      <c r="G46" s="204"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
+      <c r="G46" s="219"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6957,25 +6957,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="196" t="s">
+      <c r="X46" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="197"/>
-      <c r="Z46" s="200">
+      <c r="Y46" s="213"/>
+      <c r="Z46" s="215">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="213"/>
-      <c r="B47" s="214"/>
-      <c r="C47" s="205" t="s">
+      <c r="A47" s="192"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="222"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7040,9 +7040,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="198"/>
-      <c r="Y47" s="199"/>
-      <c r="Z47" s="201"/>
+      <c r="X47" s="205"/>
+      <c r="Y47" s="214"/>
+      <c r="Z47" s="216"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7243,11 +7243,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7255,6 +7250,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7344,18 +7344,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7363,10 +7363,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7416,22 +7416,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="190" t="s">
+      <c r="R6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="208" t="s">
+      <c r="S6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="193" t="s">
+      <c r="T6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7468,16 +7468,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="209"/>
-      <c r="T7" s="194"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="224"/>
+      <c r="T7" s="211"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7514,9 +7514,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="194"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="211"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7570,9 +7570,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="192"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="195"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="225"/>
+      <c r="T9" s="212"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10470,13 +10470,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="226"/>
       <c r="B59" s="227"/>
-      <c r="C59" s="202" t="s">
+      <c r="C59" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="204"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="219"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10517,25 +10517,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="196" t="s">
+      <c r="R59" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="197"/>
-      <c r="T59" s="200">
+      <c r="S59" s="213"/>
+      <c r="T59" s="215">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="213"/>
-      <c r="B60" s="214"/>
-      <c r="C60" s="205" t="s">
+      <c r="A60" s="192"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="206"/>
-      <c r="E60" s="206"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="207"/>
+      <c r="D60" s="221"/>
+      <c r="E60" s="221"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="222"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10576,17 +10576,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="198"/>
-      <c r="S60" s="199"/>
-      <c r="T60" s="201"/>
+      <c r="R60" s="205"/>
+      <c r="S60" s="214"/>
+      <c r="T60" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10594,6 +10589,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10703,18 +10703,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10722,10 +10722,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10772,22 +10772,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="190" t="s">
+      <c r="W6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="208" t="s">
+      <c r="X6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="193" t="s">
+      <c r="Y6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10821,16 +10821,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="194"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="224"/>
+      <c r="Y7" s="211"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10864,9 +10864,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="194"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="224"/>
+      <c r="Y8" s="211"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10935,9 +10935,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="192"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="195"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="212"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13357,15 +13357,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="211"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="202" t="s">
+      <c r="A55" s="190"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
+      <c r="G55" s="218"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13426,25 +13426,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="196" t="s">
+      <c r="W55" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="197"/>
-      <c r="Y55" s="200">
+      <c r="X55" s="213"/>
+      <c r="Y55" s="215">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="213"/>
-      <c r="B56" s="214"/>
-      <c r="C56" s="205" t="s">
+      <c r="A56" s="192"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
+      <c r="D56" s="221"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13505,17 +13505,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="198"/>
-      <c r="X56" s="199"/>
-      <c r="Y56" s="201"/>
+      <c r="W56" s="205"/>
+      <c r="X56" s="214"/>
+      <c r="Y56" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13523,6 +13518,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13612,18 +13612,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13631,10 +13631,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="221"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13643,13 +13643,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13673,22 +13673,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="190" t="s">
+      <c r="W6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="208" t="s">
+      <c r="X6" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="193" t="s">
+      <c r="Y6" s="210" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="223"/>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13714,16 +13714,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="194"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="224"/>
+      <c r="Y7" s="211"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13749,9 +13749,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="194"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="224"/>
+      <c r="Y8" s="211"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13820,9 +13820,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="192"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="195"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="225"/>
+      <c r="Y9" s="212"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15712,13 +15712,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15736,15 +15736,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="20" width="11.28515625" style="77" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="77" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="77" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="21" width="11.28515625" style="77" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="77" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="77" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:23" ht="13.5" thickBot="1">
+    <row r="1" spans="1:24" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:24" ht="13.5" thickBot="1">
       <c r="B2" s="229" t="s">
         <v>17</v>
       </c>
@@ -15752,29 +15752,29 @@
       <c r="D2" s="231"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="B3" s="232" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="233"/>
       <c r="D3" s="135">
-        <f>SUM(I8:T8)</f>
-        <v>36</v>
+        <f>SUM(I8:U8)</f>
+        <v>39</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" thickBot="1">
+    <row r="4" spans="1:24" ht="13.5" thickBot="1">
       <c r="B4" s="234" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="235"/>
       <c r="D4" s="137">
-        <f>W47</f>
-        <v>38.615888615888608</v>
+        <f>X47</f>
+        <v>37.941787941787936</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="236" t="s">
         <v>595</v>
       </c>
@@ -15823,17 +15823,20 @@
       <c r="T6" s="139">
         <v>42414</v>
       </c>
-      <c r="U6" s="237" t="s">
+      <c r="U6" s="139">
+        <v>42416</v>
+      </c>
+      <c r="V6" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="237" t="s">
+      <c r="W6" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="228" t="s">
+      <c r="X6" s="228" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="236"/>
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
@@ -15880,11 +15883,14 @@
       <c r="T7" s="142" t="s">
         <v>596</v>
       </c>
-      <c r="U7" s="237"/>
+      <c r="U7" s="142" t="s">
+        <v>596</v>
+      </c>
       <c r="V7" s="237"/>
-      <c r="W7" s="228"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="W7" s="237"/>
+      <c r="X7" s="228"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="236"/>
       <c r="B8" s="236"/>
       <c r="C8" s="236"/>
@@ -15933,11 +15939,14 @@
       <c r="T8" s="159">
         <v>3</v>
       </c>
-      <c r="U8" s="237"/>
+      <c r="U8" s="159">
+        <v>3</v>
+      </c>
       <c r="V8" s="237"/>
-      <c r="W8" s="228"/>
-    </row>
-    <row r="9" spans="1:23" ht="13.5" thickBot="1">
+      <c r="W8" s="237"/>
+      <c r="X8" s="228"/>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15998,11 +16007,14 @@
       <c r="T9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="U9" s="237"/>
+      <c r="U9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="V9" s="237"/>
-      <c r="W9" s="228"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W9" s="237"/>
+      <c r="X9" s="228"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16061,20 +16073,23 @@
       <c r="T10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="143">
-        <f t="shared" ref="U10:U46" si="0">COUNTIF(I10:T10,"P")</f>
-        <v>12</v>
-      </c>
-      <c r="V10" s="146">
-        <f t="shared" ref="V10:V46" si="1">COUNTBLANK(I10:T10)</f>
+      <c r="U10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="143">
+        <f t="shared" ref="V10:V46" si="0">COUNTIF(I10:U10,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="W10" s="146">
+        <f t="shared" ref="W10:W46" si="1">COUNTBLANK(I10:U10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="156">
-        <f>U10*100/SUM(U10:V10)</f>
+      <c r="X10" s="156">
+        <f>V10*100/SUM(V10:W10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16133,20 +16148,23 @@
       <c r="T11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U11" s="143">
+      <c r="U11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V11" s="146">
+        <v>13</v>
+      </c>
+      <c r="W11" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W11" s="156">
-        <f>U11*100/SUM(U11:V11)</f>
+      <c r="X11" s="156">
+        <f>V11*100/SUM(V11:W11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16179,20 +16197,21 @@
       <c r="R12" s="143"/>
       <c r="S12" s="143"/>
       <c r="T12" s="143"/>
-      <c r="U12" s="143">
+      <c r="U12" s="143"/>
+      <c r="V12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V12" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W12" s="156">
-        <f t="shared" ref="W12:W46" si="2">U12*100/SUM(U12:V12)</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W12" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X12" s="156">
+        <f t="shared" ref="X12:X46" si="2">V12*100/SUM(V12:W12)</f>
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16251,20 +16270,23 @@
       <c r="T13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U13" s="143">
+      <c r="U13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V13" s="146">
+        <v>13</v>
+      </c>
+      <c r="W13" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="156">
+      <c r="X13" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16307,20 +16329,23 @@
       </c>
       <c r="S14" s="143"/>
       <c r="T14" s="143"/>
-      <c r="U14" s="143">
+      <c r="U14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V14" s="146">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="W14" s="156">
+      <c r="W14" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="X14" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16361,20 +16386,23 @@
       </c>
       <c r="S15" s="143"/>
       <c r="T15" s="143"/>
-      <c r="U15" s="143">
+      <c r="U15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V15" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V15" s="146">
+        <v>6</v>
+      </c>
+      <c r="W15" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W15" s="156">
+      <c r="X15" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="179" customFormat="1" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="179" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16409,20 +16437,21 @@
       <c r="R16" s="175"/>
       <c r="S16" s="175"/>
       <c r="T16" s="175"/>
-      <c r="U16" s="143">
+      <c r="U16" s="175"/>
+      <c r="V16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="177">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W16" s="178">
+      <c r="W16" s="177">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X16" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16477,20 +16506,23 @@
       <c r="T17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U17" s="143">
+      <c r="U17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V17" s="146">
+        <v>11</v>
+      </c>
+      <c r="W17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W17" s="156">
+      <c r="X17" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16547,20 +16579,23 @@
       <c r="T18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U18" s="143">
+      <c r="U18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="V18" s="146">
+        <v>12</v>
+      </c>
+      <c r="W18" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W18" s="156">
+      <c r="X18" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16617,20 +16652,21 @@
       <c r="T19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U19" s="143">
+      <c r="U19" s="143"/>
+      <c r="V19" s="143">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V19" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="156">
+      <c r="W19" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X19" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16671,20 +16707,21 @@
       <c r="R20" s="143"/>
       <c r="S20" s="143"/>
       <c r="T20" s="143"/>
-      <c r="U20" s="143">
+      <c r="U20" s="143"/>
+      <c r="V20" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V20" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W20" s="156">
+      <c r="W20" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="X20" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16725,20 +16762,21 @@
       <c r="R21" s="143"/>
       <c r="S21" s="143"/>
       <c r="T21" s="143"/>
-      <c r="U21" s="143">
+      <c r="U21" s="143"/>
+      <c r="V21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V21" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="W21" s="156">
+      <c r="W21" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X21" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+        <v>38.46153846153846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16797,20 +16835,23 @@
       <c r="T22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U22" s="143">
+      <c r="U22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V22" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V22" s="146">
+        <v>13</v>
+      </c>
+      <c r="W22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W22" s="156">
+      <c r="X22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16853,20 +16894,21 @@
       <c r="R23" s="143"/>
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
-      <c r="U23" s="143">
+      <c r="U23" s="143"/>
+      <c r="V23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V23" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="W23" s="156">
+      <c r="W23" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X23" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+        <v>38.46153846153846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16911,20 +16953,21 @@
       </c>
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
-      <c r="U24" s="143">
+      <c r="U24" s="143"/>
+      <c r="V24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V24" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W24" s="156">
+      <c r="W24" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="X24" s="156">
         <f t="shared" si="2"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+        <v>53.846153846153847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16981,20 +17024,23 @@
       <c r="T25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U25" s="143">
+      <c r="U25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="V25" s="146">
+        <v>12</v>
+      </c>
+      <c r="W25" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W25" s="156">
+      <c r="X25" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17051,20 +17097,23 @@
       <c r="T26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U26" s="143">
+      <c r="U26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V26" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="V26" s="146">
+        <v>12</v>
+      </c>
+      <c r="W26" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W26" s="156">
+      <c r="X26" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17101,20 +17150,21 @@
       <c r="R27" s="143"/>
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
-      <c r="U27" s="143">
+      <c r="U27" s="143"/>
+      <c r="V27" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V27" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W27" s="156">
+      <c r="W27" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X27" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17145,20 +17195,21 @@
       <c r="R28" s="143"/>
       <c r="S28" s="143"/>
       <c r="T28" s="143"/>
-      <c r="U28" s="143">
+      <c r="U28" s="143"/>
+      <c r="V28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W28" s="156">
+      <c r="W28" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17211,20 +17262,21 @@
       <c r="T29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U29" s="143">
+      <c r="U29" s="143"/>
+      <c r="V29" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V29" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W29" s="156">
+      <c r="W29" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X29" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1">
+        <v>69.230769230769226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17265,20 +17317,21 @@
       <c r="R30" s="143"/>
       <c r="S30" s="143"/>
       <c r="T30" s="143"/>
-      <c r="U30" s="143">
+      <c r="U30" s="143"/>
+      <c r="V30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V30" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="W30" s="156">
+      <c r="W30" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="X30" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17309,20 +17362,21 @@
       <c r="R31" s="143"/>
       <c r="S31" s="143"/>
       <c r="T31" s="143"/>
-      <c r="U31" s="143">
+      <c r="U31" s="143"/>
+      <c r="V31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W31" s="156">
+      <c r="W31" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17357,20 +17411,21 @@
       <c r="R32" s="143"/>
       <c r="S32" s="143"/>
       <c r="T32" s="143"/>
-      <c r="U32" s="143">
+      <c r="U32" s="143"/>
+      <c r="V32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V32" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W32" s="156">
+      <c r="W32" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X32" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17419,20 +17474,21 @@
       <c r="R33" s="143"/>
       <c r="S33" s="143"/>
       <c r="T33" s="143"/>
-      <c r="U33" s="143">
+      <c r="U33" s="143"/>
+      <c r="V33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V33" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W33" s="156">
+      <c r="W33" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X33" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+        <v>69.230769230769226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17463,20 +17519,21 @@
       <c r="R34" s="143"/>
       <c r="S34" s="143"/>
       <c r="T34" s="143"/>
-      <c r="U34" s="143">
+      <c r="U34" s="143"/>
+      <c r="V34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V34" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W34" s="156">
+      <c r="W34" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17509,20 +17566,21 @@
       <c r="R35" s="143"/>
       <c r="S35" s="143"/>
       <c r="T35" s="143"/>
-      <c r="U35" s="143">
+      <c r="U35" s="143"/>
+      <c r="V35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V35" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W35" s="156">
+      <c r="W35" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X35" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17555,20 +17613,21 @@
       <c r="R36" s="143"/>
       <c r="S36" s="143"/>
       <c r="T36" s="143"/>
-      <c r="U36" s="143">
+      <c r="U36" s="143"/>
+      <c r="V36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V36" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W36" s="156">
+      <c r="W36" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X36" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17599,20 +17658,21 @@
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
       <c r="T37" s="143"/>
-      <c r="U37" s="143">
+      <c r="U37" s="143"/>
+      <c r="V37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V37" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W37" s="156">
+      <c r="W37" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1">
+    <row r="38" spans="1:24" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17643,20 +17703,21 @@
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
       <c r="T38" s="143"/>
-      <c r="U38" s="143">
+      <c r="U38" s="143"/>
+      <c r="V38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V38" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W38" s="156">
+      <c r="W38" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1">
+    <row r="39" spans="1:24" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -17687,20 +17748,21 @@
       <c r="R39" s="143"/>
       <c r="S39" s="143"/>
       <c r="T39" s="143"/>
-      <c r="U39" s="143">
+      <c r="U39" s="143"/>
+      <c r="V39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V39" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W39" s="156">
+      <c r="W39" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1">
+    <row r="40" spans="1:24" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -17743,20 +17805,21 @@
       </c>
       <c r="S40" s="143"/>
       <c r="T40" s="143"/>
-      <c r="U40" s="143">
+      <c r="U40" s="143"/>
+      <c r="V40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V40" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W40" s="156">
+      <c r="W40" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="X40" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -17787,20 +17850,21 @@
       <c r="R41" s="143"/>
       <c r="S41" s="143"/>
       <c r="T41" s="143"/>
-      <c r="U41" s="143">
-        <f>COUNTIF(I41:T41,"P")</f>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143">
+        <f>COUNTIF(I41:U41,"P")</f>
         <v>0</v>
       </c>
-      <c r="V41" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W41" s="156">
+      <c r="W41" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1">
+    <row r="42" spans="1:24" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -17843,20 +17907,23 @@
       </c>
       <c r="S42" s="143"/>
       <c r="T42" s="143"/>
-      <c r="U42" s="143">
+      <c r="U42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V42" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V42" s="146">
+        <v>6</v>
+      </c>
+      <c r="W42" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W42" s="156">
+      <c r="X42" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -17895,20 +17962,21 @@
       <c r="R43" s="143"/>
       <c r="S43" s="143"/>
       <c r="T43" s="143"/>
-      <c r="U43" s="143">
+      <c r="U43" s="143"/>
+      <c r="V43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V43" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="W43" s="156">
+      <c r="W43" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="X43" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15">
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -17931,20 +17999,21 @@
       <c r="R44" s="143"/>
       <c r="S44" s="143"/>
       <c r="T44" s="143"/>
-      <c r="U44" s="143">
+      <c r="U44" s="143"/>
+      <c r="V44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V44" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W44" s="156">
+      <c r="W44" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15">
+    <row r="45" spans="1:24" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -17967,20 +18036,21 @@
       <c r="R45" s="143"/>
       <c r="S45" s="143"/>
       <c r="T45" s="143"/>
-      <c r="U45" s="143">
+      <c r="U45" s="143"/>
+      <c r="V45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V45" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W45" s="156">
+      <c r="W45" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15">
+    <row r="46" spans="1:24" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18003,20 +18073,21 @@
       <c r="R46" s="143"/>
       <c r="S46" s="143"/>
       <c r="T46" s="143"/>
-      <c r="U46" s="143">
+      <c r="U46" s="143"/>
+      <c r="V46" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V46" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W46" s="156">
+      <c r="W46" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="X46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15">
+    <row r="47" spans="1:24" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18071,28 +18142,31 @@
         <v>10</v>
       </c>
       <c r="U47" s="149">
+        <v>11</v>
+      </c>
+      <c r="V47" s="149">
         <f>COUNTIF(I47:J47,"P")</f>
         <v>0</v>
       </c>
-      <c r="V47" s="150">
+      <c r="W47" s="150">
         <f>COUNTBLANK(I47:M47)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="157">
-        <f>AVERAGE(W10:W46)</f>
-        <v>38.615888615888608</v>
+      <c r="X47" s="157">
+        <f>AVERAGE(X10:X46)</f>
+        <v>37.941787941787936</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W47"/>
+  <autoFilter ref="A9:X47"/>
   <mergeCells count="7">
-    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="X6:X9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="U6:U9"/>
     <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$X$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$Y$47</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="598">
   <si>
     <t>S No</t>
   </si>
@@ -2833,7 +2833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3362,9 +3362,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3628,7 +3625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3663,7 +3660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3911,18 +3908,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3930,10 +3927,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3942,13 +3939,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4001,22 +3998,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="207" t="s">
+      <c r="X6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="223" t="s">
+      <c r="Y6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="210" t="s">
+      <c r="Z6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4071,16 +4068,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="224"/>
-      <c r="Z7" s="211"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="223"/>
+      <c r="Z7" s="210"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4135,9 +4132,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="211"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="210"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4209,9 +4206,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="212"/>
+      <c r="X9" s="208"/>
+      <c r="Y9" s="224"/>
+      <c r="Z9" s="211"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6884,15 +6881,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="217" t="s">
+      <c r="A46" s="189"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="218"/>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
-      <c r="G46" s="219"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="218"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6957,25 +6954,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="201" t="s">
+      <c r="X46" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="215">
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="214">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="192"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="220" t="s">
+      <c r="A47" s="191"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="221"/>
-      <c r="E47" s="221"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="222"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="221"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7040,9 +7037,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="205"/>
-      <c r="Y47" s="214"/>
-      <c r="Z47" s="216"/>
+      <c r="X47" s="204"/>
+      <c r="Y47" s="213"/>
+      <c r="Z47" s="215"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7344,18 +7341,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7363,10 +7360,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7375,13 +7372,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7416,22 +7413,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="207" t="s">
+      <c r="R6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="223" t="s">
+      <c r="S6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="210" t="s">
+      <c r="T6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7468,16 +7465,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="211"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="210"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7514,9 +7511,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="208"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="211"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7570,9 +7567,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="225"/>
-      <c r="T9" s="212"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="211"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10468,15 +10465,15 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A59" s="226"/>
-      <c r="B59" s="227"/>
-      <c r="C59" s="217" t="s">
+      <c r="A59" s="225"/>
+      <c r="B59" s="226"/>
+      <c r="C59" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="219"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
+      <c r="F59" s="217"/>
+      <c r="G59" s="218"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10517,25 +10514,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="201" t="s">
+      <c r="R59" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="213"/>
-      <c r="T59" s="215">
+      <c r="S59" s="212"/>
+      <c r="T59" s="214">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="192"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="220" t="s">
+      <c r="A60" s="191"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="221"/>
-      <c r="E60" s="221"/>
-      <c r="F60" s="221"/>
-      <c r="G60" s="222"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="221"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10576,9 +10573,9 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="205"/>
-      <c r="S60" s="214"/>
-      <c r="T60" s="216"/>
+      <c r="R60" s="204"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10703,18 +10700,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10722,10 +10719,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10734,13 +10731,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10772,22 +10769,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10821,16 +10818,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="210"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10864,9 +10861,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="210"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10935,9 +10932,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="208"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="211"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13357,15 +13354,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="217" t="s">
+      <c r="A55" s="189"/>
+      <c r="B55" s="190"/>
+      <c r="C55" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13426,25 +13423,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="201" t="s">
+      <c r="W55" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="213"/>
-      <c r="Y55" s="215">
+      <c r="X55" s="212"/>
+      <c r="Y55" s="214">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="192"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="220" t="s">
+      <c r="A56" s="191"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
+      <c r="D56" s="220"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="220"/>
+      <c r="G56" s="220"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13505,9 +13502,9 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="205"/>
-      <c r="X56" s="214"/>
-      <c r="Y56" s="216"/>
+      <c r="W56" s="204"/>
+      <c r="X56" s="213"/>
+      <c r="Y56" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13612,18 +13609,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13631,10 +13628,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13643,13 +13640,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13673,22 +13670,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="223" t="s">
+      <c r="X6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="210" t="s">
+      <c r="Y6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13714,16 +13711,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="211"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="210"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13749,9 +13746,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="211"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="210"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13820,9 +13817,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="212"/>
+      <c r="W9" s="208"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="211"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15712,13 +15709,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15736,52 +15733,52 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="21" width="11.28515625" style="77" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="77" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="77" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="22" width="11.28515625" style="77" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="77" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="77" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1">
-      <c r="B2" s="229" t="s">
+    <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:25" ht="13.5" thickBot="1">
+      <c r="B2" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="231"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="B3" s="232" t="s">
+    <row r="3" spans="1:25">
+      <c r="B3" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="233"/>
+      <c r="C3" s="232"/>
       <c r="D3" s="135">
-        <f>SUM(I8:U8)</f>
-        <v>39</v>
+        <f>SUM(I8:V8)</f>
+        <v>42</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" thickBot="1">
-      <c r="B4" s="234" t="s">
+    <row r="4" spans="1:25" ht="13.5" thickBot="1">
+      <c r="B4" s="233" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="235"/>
+      <c r="C4" s="234"/>
       <c r="D4" s="137">
-        <f>X47</f>
-        <v>37.941787941787936</v>
+        <f>Y47</f>
+        <v>36.575586575586556</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:24" ht="15">
-      <c r="A6" s="236" t="s">
+    <row r="6" spans="1:25" ht="15">
+      <c r="A6" s="235" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
       <c r="F6" s="151" t="s">
         <v>18</v>
       </c>
@@ -15826,22 +15823,25 @@
       <c r="U6" s="139">
         <v>42416</v>
       </c>
-      <c r="V6" s="237" t="s">
+      <c r="V6" s="139">
+        <v>42419</v>
+      </c>
+      <c r="W6" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="237" t="s">
+      <c r="X6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="228" t="s">
+      <c r="Y6" s="227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="236"/>
-      <c r="B7" s="236"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
+    <row r="7" spans="1:25">
+      <c r="A7" s="235"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="140" t="s">
         <v>16</v>
       </c>
@@ -15886,16 +15886,19 @@
       <c r="U7" s="142" t="s">
         <v>596</v>
       </c>
-      <c r="V7" s="237"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="228"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="236"/>
-      <c r="B8" s="236"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
+      <c r="V7" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="W7" s="236"/>
+      <c r="X7" s="236"/>
+      <c r="Y7" s="227"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
       <c r="F8" s="153" t="s">
         <v>19</v>
       </c>
@@ -15942,11 +15945,14 @@
       <c r="U8" s="159">
         <v>3</v>
       </c>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="228"/>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" thickBot="1">
+      <c r="V8" s="159">
+        <v>3</v>
+      </c>
+      <c r="W8" s="236"/>
+      <c r="X8" s="236"/>
+      <c r="Y8" s="227"/>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -16010,16 +16016,19 @@
       <c r="U9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="V9" s="237"/>
-      <c r="W9" s="237"/>
-      <c r="X9" s="228"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+      <c r="V9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="W9" s="236"/>
+      <c r="X9" s="236"/>
+      <c r="Y9" s="227"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
       <c r="B10" s="160"/>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="181" t="s">
         <v>520</v>
       </c>
       <c r="D10" s="162" t="s">
@@ -16028,13 +16037,13 @@
       <c r="E10" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F10" s="184">
+      <c r="F10" s="183">
         <v>1867076823</v>
       </c>
       <c r="G10" s="168" t="s">
         <v>558</v>
       </c>
-      <c r="H10" s="188" t="s">
+      <c r="H10" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I10" s="143" t="s">
@@ -16076,25 +16085,28 @@
       <c r="U10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V10" s="143">
-        <f t="shared" ref="V10:V46" si="0">COUNTIF(I10:U10,"P")</f>
-        <v>13</v>
-      </c>
-      <c r="W10" s="146">
-        <f t="shared" ref="W10:W46" si="1">COUNTBLANK(I10:U10)</f>
+      <c r="V10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W10" s="143">
+        <f t="shared" ref="W10:W45" si="0">COUNTIF(I10:V10,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X10" s="146">
+        <f>COUNTBLANK(I10:V10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="156">
-        <f>V10*100/SUM(V10:W10)</f>
+      <c r="Y10" s="156">
+        <f>W10*100/SUM(W10:X10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
       <c r="B11" s="160"/>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="181" t="s">
         <v>521</v>
       </c>
       <c r="D11" s="162" t="s">
@@ -16103,13 +16115,13 @@
       <c r="E11" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="184">
+      <c r="F11" s="183">
         <v>1732202888</v>
       </c>
       <c r="G11" s="168" t="s">
         <v>559</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I11" s="143" t="s">
@@ -16151,25 +16163,28 @@
       <c r="U11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="143">
+      <c r="V11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W11" s="146">
-        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="X11" s="146">
+        <f t="shared" ref="X11:X46" si="1">COUNTBLANK(I11:V11)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="156">
-        <f>V11*100/SUM(V11:W11)</f>
+      <c r="Y11" s="156">
+        <f>W11*100/SUM(W11:X11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1">
+    <row r="12" spans="1:25" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
       <c r="B12" s="160"/>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="181" t="s">
         <v>522</v>
       </c>
       <c r="D12" s="162" t="s">
@@ -16178,11 +16193,11 @@
       <c r="E12" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F12" s="185"/>
+      <c r="F12" s="184"/>
       <c r="G12" s="168" t="s">
         <v>560</v>
       </c>
-      <c r="H12" s="185"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="143"/>
       <c r="J12" s="143"/>
       <c r="K12" s="143"/>
@@ -16198,25 +16213,26 @@
       <c r="S12" s="143"/>
       <c r="T12" s="143"/>
       <c r="U12" s="143"/>
-      <c r="V12" s="143">
+      <c r="V12" s="143"/>
+      <c r="W12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W12" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X12" s="156">
-        <f t="shared" ref="X12:X46" si="2">V12*100/SUM(V12:W12)</f>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+      <c r="X12" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y12" s="156">
+        <f t="shared" ref="Y12:Y46" si="2">W12*100/SUM(W12:X12)</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
       <c r="B13" s="160"/>
-      <c r="C13" s="182" t="s">
+      <c r="C13" s="181" t="s">
         <v>523</v>
       </c>
       <c r="D13" s="162" t="s">
@@ -16225,13 +16241,13 @@
       <c r="E13" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F13" s="184">
+      <c r="F13" s="183">
         <v>1673312883</v>
       </c>
       <c r="G13" s="168" t="s">
         <v>561</v>
       </c>
-      <c r="H13" s="188" t="s">
+      <c r="H13" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I13" s="143" t="s">
@@ -16273,25 +16289,28 @@
       <c r="U13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V13" s="143">
+      <c r="V13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W13" s="146">
+        <v>14</v>
+      </c>
+      <c r="X13" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="156">
+      <c r="Y13" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
       <c r="B14" s="160"/>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="181" t="s">
         <v>524</v>
       </c>
       <c r="D14" s="162" t="s">
@@ -16300,11 +16319,11 @@
       <c r="E14" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F14" s="184"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="168" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="185"/>
+      <c r="H14" s="184"/>
       <c r="I14" s="143"/>
       <c r="J14" s="143" t="s">
         <v>594</v>
@@ -16332,25 +16351,26 @@
       <c r="U14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V14" s="143">
+      <c r="V14" s="143"/>
+      <c r="W14" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="W14" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="X14" s="156">
+      <c r="X14" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y14" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
       <c r="B15" s="160"/>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="181" t="s">
         <v>525</v>
       </c>
       <c r="D15" s="162" t="s">
@@ -16359,11 +16379,11 @@
       <c r="E15" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F15" s="185"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="168" t="s">
         <v>563</v>
       </c>
-      <c r="H15" s="185"/>
+      <c r="H15" s="184"/>
       <c r="I15" s="143"/>
       <c r="J15" s="143"/>
       <c r="K15" s="143" t="s">
@@ -16389,25 +16409,26 @@
       <c r="U15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V15" s="143">
+      <c r="V15" s="143"/>
+      <c r="W15" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="W15" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X15" s="156">
+      <c r="X15" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Y15" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="179" customFormat="1" ht="15.75" thickBot="1">
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="178" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
       <c r="B16" s="172"/>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="181" t="s">
         <v>526</v>
       </c>
       <c r="D16" s="173" t="s">
@@ -16416,13 +16437,13 @@
       <c r="E16" s="174" t="s">
         <v>556</v>
       </c>
-      <c r="F16" s="184">
+      <c r="F16" s="183">
         <v>1616474369</v>
       </c>
       <c r="G16" s="176" t="s">
         <v>564</v>
       </c>
-      <c r="H16" s="188" t="s">
+      <c r="H16" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I16" s="175"/>
@@ -16438,40 +16459,41 @@
       <c r="S16" s="175"/>
       <c r="T16" s="175"/>
       <c r="U16" s="175"/>
-      <c r="V16" s="143">
+      <c r="V16" s="175"/>
+      <c r="W16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W16" s="177">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X16" s="178">
+      <c r="X16" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y16" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1">
+    <row r="17" spans="1:25" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
       <c r="B17" s="160"/>
-      <c r="C17" s="182" t="s">
+      <c r="C17" s="181" t="s">
         <v>527</v>
       </c>
       <c r="D17" s="162" t="s">
         <v>555</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="179" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="184">
+      <c r="F17" s="183">
         <v>1676291917</v>
       </c>
-      <c r="G17" s="181" t="s">
+      <c r="G17" s="180" t="s">
         <v>565</v>
       </c>
-      <c r="H17" s="188" t="s">
+      <c r="H17" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I17" s="143"/>
@@ -16509,25 +16531,26 @@
       <c r="U17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V17" s="143">
+      <c r="V17" s="143"/>
+      <c r="W17" s="143">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W17" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X17" s="156">
+      <c r="X17" s="146">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
       <c r="B18" s="161"/>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="181" t="s">
         <v>528</v>
       </c>
       <c r="D18" s="162" t="s">
@@ -16536,13 +16559,13 @@
       <c r="E18" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F18" s="184">
+      <c r="F18" s="183">
         <v>1912238581</v>
       </c>
       <c r="G18" s="168" t="s">
         <v>566</v>
       </c>
-      <c r="H18" s="188" t="s">
+      <c r="H18" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I18" s="143"/>
@@ -16582,25 +16605,26 @@
       <c r="U18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="143">
+      <c r="V18" s="143"/>
+      <c r="W18" s="143">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W18" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="156">
+      <c r="X18" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y18" s="156">
         <f t="shared" si="2"/>
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1">
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
       <c r="B19" s="160"/>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="181" t="s">
         <v>529</v>
       </c>
       <c r="D19" s="162" t="s">
@@ -16609,13 +16633,13 @@
       <c r="E19" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F19" s="184">
+      <c r="F19" s="183">
         <v>1920157060</v>
       </c>
       <c r="G19" s="168" t="s">
         <v>567</v>
       </c>
-      <c r="H19" s="189" t="s">
+      <c r="H19" s="188" t="s">
         <v>592</v>
       </c>
       <c r="I19" s="143" t="s">
@@ -16653,25 +16677,26 @@
         <v>104</v>
       </c>
       <c r="U19" s="143"/>
-      <c r="V19" s="143">
+      <c r="V19" s="143"/>
+      <c r="W19" s="143">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W19" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X19" s="156">
+      <c r="X19" s="146">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y19" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
       <c r="B20" s="161"/>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="181" t="s">
         <v>530</v>
       </c>
       <c r="D20" s="163" t="s">
@@ -16680,13 +16705,13 @@
       <c r="E20" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="184">
+      <c r="F20" s="183">
         <v>1747531888</v>
       </c>
       <c r="G20" s="168" t="s">
         <v>568</v>
       </c>
-      <c r="H20" s="188"/>
+      <c r="H20" s="187"/>
       <c r="I20" s="143"/>
       <c r="J20" s="143" t="s">
         <v>104</v>
@@ -16708,25 +16733,26 @@
       <c r="S20" s="143"/>
       <c r="T20" s="143"/>
       <c r="U20" s="143"/>
-      <c r="V20" s="143">
+      <c r="V20" s="143"/>
+      <c r="W20" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W20" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="X20" s="156">
+      <c r="X20" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y20" s="156">
         <f t="shared" si="2"/>
-        <v>30.76923076923077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
       <c r="B21" s="160"/>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="181" t="s">
         <v>531</v>
       </c>
       <c r="D21" s="162" t="s">
@@ -16735,11 +16761,11 @@
       <c r="E21" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F21" s="185"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="168" t="s">
         <v>569</v>
       </c>
-      <c r="H21" s="185"/>
+      <c r="H21" s="184"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143" t="s">
         <v>104</v>
@@ -16763,25 +16789,26 @@
       <c r="S21" s="143"/>
       <c r="T21" s="143"/>
       <c r="U21" s="143"/>
-      <c r="V21" s="143">
+      <c r="V21" s="143"/>
+      <c r="W21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W21" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="X21" s="156">
+      <c r="X21" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="156">
         <f t="shared" si="2"/>
-        <v>38.46153846153846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
       <c r="B22" s="160"/>
-      <c r="C22" s="182" t="s">
+      <c r="C22" s="181" t="s">
         <v>532</v>
       </c>
       <c r="D22" s="162" t="s">
@@ -16790,13 +16817,13 @@
       <c r="E22" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F22" s="184">
+      <c r="F22" s="183">
         <v>1621449609</v>
       </c>
       <c r="G22" s="168" t="s">
         <v>570</v>
       </c>
-      <c r="H22" s="188" t="s">
+      <c r="H22" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I22" s="143" t="s">
@@ -16838,25 +16865,28 @@
       <c r="U22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V22" s="143">
+      <c r="V22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W22" s="146">
+        <v>14</v>
+      </c>
+      <c r="X22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X22" s="156">
+      <c r="Y22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
       <c r="B23" s="160"/>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="181" t="s">
         <v>533</v>
       </c>
       <c r="D23" s="162" t="s">
@@ -16865,13 +16895,13 @@
       <c r="E23" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F23" s="184">
+      <c r="F23" s="183">
         <v>1676261014</v>
       </c>
       <c r="G23" s="168" t="s">
         <v>571</v>
       </c>
-      <c r="H23" s="185"/>
+      <c r="H23" s="184"/>
       <c r="I23" s="143"/>
       <c r="J23" s="143"/>
       <c r="K23" s="143" t="s">
@@ -16895,25 +16925,26 @@
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
-      <c r="V23" s="143">
+      <c r="V23" s="143"/>
+      <c r="W23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W23" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="X23" s="156">
+      <c r="X23" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y23" s="156">
         <f t="shared" si="2"/>
-        <v>38.46153846153846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
       <c r="B24" s="160"/>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="181" t="s">
         <v>534</v>
       </c>
       <c r="D24" s="162" t="s">
@@ -16922,11 +16953,11 @@
       <c r="E24" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F24" s="185"/>
+      <c r="F24" s="184"/>
       <c r="G24" s="168" t="s">
         <v>572</v>
       </c>
-      <c r="H24" s="185"/>
+      <c r="H24" s="184"/>
       <c r="I24" s="143" t="s">
         <v>104</v>
       </c>
@@ -16954,25 +16985,26 @@
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
       <c r="U24" s="143"/>
-      <c r="V24" s="143">
+      <c r="V24" s="143"/>
+      <c r="W24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W24" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="X24" s="156">
+      <c r="X24" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y24" s="156">
         <f t="shared" si="2"/>
-        <v>53.846153846153847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
       <c r="B25" s="160"/>
-      <c r="C25" s="182" t="s">
+      <c r="C25" s="181" t="s">
         <v>535</v>
       </c>
       <c r="D25" s="162" t="s">
@@ -16981,13 +17013,13 @@
       <c r="E25" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F25" s="184">
+      <c r="F25" s="183">
         <v>1714282653</v>
       </c>
       <c r="G25" s="168" t="s">
         <v>573</v>
       </c>
-      <c r="H25" s="188" t="s">
+      <c r="H25" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I25" s="143" t="s">
@@ -17027,25 +17059,28 @@
       <c r="U25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V25" s="143">
+      <c r="V25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="W25" s="146">
+        <v>13</v>
+      </c>
+      <c r="X25" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X25" s="156">
+      <c r="Y25" s="156">
         <f t="shared" si="2"/>
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
       <c r="B26" s="160"/>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="181" t="s">
         <v>536</v>
       </c>
       <c r="D26" s="162" t="s">
@@ -17054,13 +17089,13 @@
       <c r="E26" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F26" s="184">
+      <c r="F26" s="183">
         <v>1798407229</v>
       </c>
       <c r="G26" s="168" t="s">
         <v>574</v>
       </c>
-      <c r="H26" s="188" t="s">
+      <c r="H26" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I26" s="143" t="s">
@@ -17100,25 +17135,28 @@
       <c r="U26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V26" s="143">
+      <c r="V26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W26" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="W26" s="146">
+        <v>13</v>
+      </c>
+      <c r="X26" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X26" s="156">
+      <c r="Y26" s="156">
         <f t="shared" si="2"/>
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
       <c r="B27" s="160"/>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="181" t="s">
         <v>537</v>
       </c>
       <c r="D27" s="162" t="s">
@@ -17127,13 +17165,13 @@
       <c r="E27" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F27" s="184">
+      <c r="F27" s="183">
         <v>1752797639</v>
       </c>
       <c r="G27" s="168" t="s">
         <v>575</v>
       </c>
-      <c r="H27" s="188" t="s">
+      <c r="H27" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I27" s="143"/>
@@ -17151,25 +17189,26 @@
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
-      <c r="V27" s="143">
+      <c r="V27" s="143"/>
+      <c r="W27" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W27" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X27" s="156">
+      <c r="X27" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y27" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
       <c r="B28" s="160"/>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="181" t="s">
         <v>538</v>
       </c>
       <c r="D28" s="162" t="s">
@@ -17178,11 +17217,11 @@
       <c r="E28" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F28" s="185"/>
+      <c r="F28" s="184"/>
       <c r="G28" s="168" t="s">
         <v>576</v>
       </c>
-      <c r="H28" s="185"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="143"/>
       <c r="J28" s="143"/>
       <c r="K28" s="143"/>
@@ -17196,25 +17235,26 @@
       <c r="S28" s="143"/>
       <c r="T28" s="143"/>
       <c r="U28" s="143"/>
-      <c r="V28" s="143">
+      <c r="V28" s="143"/>
+      <c r="W28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W28" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X28" s="156">
+      <c r="X28" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1">
+    <row r="29" spans="1:25" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
       <c r="B29" s="160"/>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="181" t="s">
         <v>539</v>
       </c>
       <c r="D29" s="143" t="s">
@@ -17223,13 +17263,13 @@
       <c r="E29" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F29" s="184">
+      <c r="F29" s="183">
         <v>1766354334</v>
       </c>
       <c r="G29" s="168" t="s">
         <v>577</v>
       </c>
-      <c r="H29" s="188" t="s">
+      <c r="H29" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I29" s="143" t="s">
@@ -17263,25 +17303,26 @@
         <v>104</v>
       </c>
       <c r="U29" s="143"/>
-      <c r="V29" s="143">
-        <f t="shared" si="0"/>
+      <c r="V29" s="143"/>
+      <c r="W29" s="143">
+        <f>COUNTIF(I29:V29,"P")</f>
         <v>9</v>
       </c>
-      <c r="W29" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="X29" s="156">
+      <c r="X29" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y29" s="156">
         <f t="shared" si="2"/>
-        <v>69.230769230769226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1">
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
       <c r="B30" s="160"/>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="181" t="s">
         <v>540</v>
       </c>
       <c r="D30" s="143" t="s">
@@ -17290,13 +17331,13 @@
       <c r="E30" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F30" s="184">
+      <c r="F30" s="183">
         <v>1622044429</v>
       </c>
       <c r="G30" s="168" t="s">
         <v>578</v>
       </c>
-      <c r="H30" s="188" t="s">
+      <c r="H30" s="187" t="s">
         <v>593</v>
       </c>
       <c r="I30" s="143" t="s">
@@ -17318,25 +17359,26 @@
       <c r="S30" s="143"/>
       <c r="T30" s="143"/>
       <c r="U30" s="143"/>
-      <c r="V30" s="143">
+      <c r="V30" s="143"/>
+      <c r="W30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="W30" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="X30" s="156">
+      <c r="X30" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Y30" s="156">
         <f t="shared" si="2"/>
-        <v>23.076923076923077</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
       <c r="B31" s="160"/>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="181" t="s">
         <v>541</v>
       </c>
       <c r="D31" s="143" t="s">
@@ -17345,11 +17387,11 @@
       <c r="E31" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F31" s="185"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="168" t="s">
         <v>579</v>
       </c>
-      <c r="H31" s="185"/>
+      <c r="H31" s="184"/>
       <c r="I31" s="143"/>
       <c r="J31" s="143"/>
       <c r="K31" s="143"/>
@@ -17363,25 +17405,26 @@
       <c r="S31" s="143"/>
       <c r="T31" s="143"/>
       <c r="U31" s="143"/>
-      <c r="V31" s="143">
+      <c r="V31" s="143"/>
+      <c r="W31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W31" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X31" s="156">
+      <c r="X31" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+    <row r="32" spans="1:25" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
       <c r="B32" s="160"/>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="181" t="s">
         <v>542</v>
       </c>
       <c r="D32" s="143" t="s">
@@ -17390,13 +17433,13 @@
       <c r="E32" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F32" s="184">
+      <c r="F32" s="183">
         <v>1952023386</v>
       </c>
       <c r="G32" s="168" t="s">
         <v>580</v>
       </c>
-      <c r="H32" s="185"/>
+      <c r="H32" s="184"/>
       <c r="I32" s="143"/>
       <c r="J32" s="143" t="s">
         <v>104</v>
@@ -17412,25 +17455,26 @@
       <c r="S32" s="143"/>
       <c r="T32" s="143"/>
       <c r="U32" s="143"/>
-      <c r="V32" s="143">
+      <c r="V32" s="143"/>
+      <c r="W32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W32" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X32" s="156">
+      <c r="X32" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y32" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1">
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
       <c r="B33" s="160"/>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="181" t="s">
         <v>543</v>
       </c>
       <c r="D33" s="143" t="s">
@@ -17439,11 +17483,11 @@
       <c r="E33" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F33" s="185"/>
+      <c r="F33" s="184"/>
       <c r="G33" s="168" t="s">
         <v>581</v>
       </c>
-      <c r="H33" s="185"/>
+      <c r="H33" s="184"/>
       <c r="I33" s="143" t="s">
         <v>104</v>
       </c>
@@ -17475,25 +17519,26 @@
       <c r="S33" s="143"/>
       <c r="T33" s="143"/>
       <c r="U33" s="143"/>
-      <c r="V33" s="143">
+      <c r="V33" s="143"/>
+      <c r="W33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W33" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="X33" s="156">
+      <c r="X33" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y33" s="156">
         <f t="shared" si="2"/>
-        <v>69.230769230769226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
       <c r="B34" s="160"/>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="181" t="s">
         <v>544</v>
       </c>
       <c r="D34" s="143" t="s">
@@ -17502,11 +17547,11 @@
       <c r="E34" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F34" s="185"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="168" t="s">
         <v>582</v>
       </c>
-      <c r="H34" s="185"/>
+      <c r="H34" s="184"/>
       <c r="I34" s="143"/>
       <c r="J34" s="143"/>
       <c r="K34" s="143"/>
@@ -17520,25 +17565,26 @@
       <c r="S34" s="143"/>
       <c r="T34" s="143"/>
       <c r="U34" s="143"/>
-      <c r="V34" s="143">
+      <c r="V34" s="143"/>
+      <c r="W34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W34" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X34" s="156">
+      <c r="X34" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
       <c r="B35" s="160"/>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="181" t="s">
         <v>545</v>
       </c>
       <c r="D35" s="143" t="s">
@@ -17547,11 +17593,11 @@
       <c r="E35" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F35" s="185"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="168" t="s">
         <v>583</v>
       </c>
-      <c r="H35" s="185"/>
+      <c r="H35" s="184"/>
       <c r="I35" s="143"/>
       <c r="J35" s="143"/>
       <c r="K35" s="143" t="s">
@@ -17567,20 +17613,21 @@
       <c r="S35" s="143"/>
       <c r="T35" s="143"/>
       <c r="U35" s="143"/>
-      <c r="V35" s="143">
+      <c r="V35" s="143"/>
+      <c r="W35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W35" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X35" s="156">
+      <c r="X35" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y35" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17594,11 +17641,11 @@
       <c r="E36" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F36" s="185"/>
+      <c r="F36" s="184"/>
       <c r="G36" s="169" t="s">
         <v>584</v>
       </c>
-      <c r="H36" s="185"/>
+      <c r="H36" s="184"/>
       <c r="I36" s="143"/>
       <c r="J36" s="143" t="s">
         <v>104</v>
@@ -17614,20 +17661,21 @@
       <c r="S36" s="143"/>
       <c r="T36" s="143"/>
       <c r="U36" s="143"/>
-      <c r="V36" s="143">
+      <c r="V36" s="143"/>
+      <c r="W36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W36" s="146">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X36" s="156">
+      <c r="X36" s="146">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Y36" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1">
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17641,11 +17689,11 @@
       <c r="E37" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F37" s="185"/>
+      <c r="F37" s="184"/>
       <c r="G37" s="169" t="s">
         <v>585</v>
       </c>
-      <c r="H37" s="185"/>
+      <c r="H37" s="184"/>
       <c r="I37" s="143"/>
       <c r="J37" s="143"/>
       <c r="K37" s="143"/>
@@ -17659,25 +17707,26 @@
       <c r="S37" s="143"/>
       <c r="T37" s="143"/>
       <c r="U37" s="143"/>
-      <c r="V37" s="143">
+      <c r="V37" s="143"/>
+      <c r="W37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W37" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X37" s="156">
+      <c r="X37" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" thickBot="1">
+    <row r="38" spans="1:25" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
       <c r="B38" s="160"/>
-      <c r="C38" s="183" t="s">
+      <c r="C38" s="182" t="s">
         <v>548</v>
       </c>
       <c r="D38" s="143" t="s">
@@ -17686,11 +17735,11 @@
       <c r="E38" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F38" s="185"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="170" t="s">
         <v>586</v>
       </c>
-      <c r="H38" s="185"/>
+      <c r="H38" s="184"/>
       <c r="I38" s="143"/>
       <c r="J38" s="143"/>
       <c r="K38" s="143"/>
@@ -17704,25 +17753,26 @@
       <c r="S38" s="143"/>
       <c r="T38" s="143"/>
       <c r="U38" s="143"/>
-      <c r="V38" s="143">
+      <c r="V38" s="143"/>
+      <c r="W38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W38" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X38" s="156">
+      <c r="X38" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" thickBot="1">
+    <row r="39" spans="1:25" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
       <c r="B39" s="160"/>
-      <c r="C39" s="183" t="s">
+      <c r="C39" s="182" t="s">
         <v>549</v>
       </c>
       <c r="D39" s="143" t="s">
@@ -17731,11 +17781,11 @@
       <c r="E39" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F39" s="185"/>
+      <c r="F39" s="184"/>
       <c r="G39" s="170" t="s">
         <v>587</v>
       </c>
-      <c r="H39" s="185"/>
+      <c r="H39" s="184"/>
       <c r="I39" s="143"/>
       <c r="J39" s="143"/>
       <c r="K39" s="143"/>
@@ -17749,25 +17799,26 @@
       <c r="S39" s="143"/>
       <c r="T39" s="143"/>
       <c r="U39" s="143"/>
-      <c r="V39" s="143">
+      <c r="V39" s="143"/>
+      <c r="W39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W39" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X39" s="156">
+      <c r="X39" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" thickBot="1">
+    <row r="40" spans="1:25" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
       <c r="B40" s="160"/>
-      <c r="C40" s="183" t="s">
+      <c r="C40" s="182" t="s">
         <v>550</v>
       </c>
       <c r="D40" s="143" t="s">
@@ -17776,13 +17827,13 @@
       <c r="E40" s="164" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="184">
+      <c r="F40" s="183">
         <v>1937777853</v>
       </c>
       <c r="G40" s="170" t="s">
         <v>588</v>
       </c>
-      <c r="H40" s="188" t="s">
+      <c r="H40" s="187" t="s">
         <v>592</v>
       </c>
       <c r="I40" s="143"/>
@@ -17806,25 +17857,26 @@
       <c r="S40" s="143"/>
       <c r="T40" s="143"/>
       <c r="U40" s="143"/>
-      <c r="V40" s="143">
+      <c r="V40" s="143"/>
+      <c r="W40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W40" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="X40" s="156">
+      <c r="X40" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y40" s="156">
         <f t="shared" si="2"/>
-        <v>30.76923076923077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" thickBot="1">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
       <c r="B41" s="160"/>
-      <c r="C41" s="183" t="s">
+      <c r="C41" s="182" t="s">
         <v>551</v>
       </c>
       <c r="D41" s="143" t="s">
@@ -17833,11 +17885,11 @@
       <c r="E41" s="166" t="s">
         <v>556</v>
       </c>
-      <c r="F41" s="185"/>
+      <c r="F41" s="184"/>
       <c r="G41" s="167" t="s">
         <v>589</v>
       </c>
-      <c r="H41" s="185"/>
+      <c r="H41" s="184"/>
       <c r="I41" s="143"/>
       <c r="J41" s="143"/>
       <c r="K41" s="143"/>
@@ -17851,25 +17903,26 @@
       <c r="S41" s="143"/>
       <c r="T41" s="143"/>
       <c r="U41" s="143"/>
-      <c r="V41" s="143">
-        <f>COUNTIF(I41:U41,"P")</f>
+      <c r="V41" s="143"/>
+      <c r="W41" s="143">
+        <f>COUNTIF(I41:V41,"P")</f>
         <v>0</v>
       </c>
-      <c r="W41" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X41" s="156">
+      <c r="X41" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1">
+    <row r="42" spans="1:25" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
       <c r="B42" s="160"/>
-      <c r="C42" s="183" t="s">
+      <c r="C42" s="182" t="s">
         <v>552</v>
       </c>
       <c r="D42" s="143" t="s">
@@ -17878,13 +17931,13 @@
       <c r="E42" s="166" t="s">
         <v>556</v>
       </c>
-      <c r="F42" s="184">
+      <c r="F42" s="183">
         <v>1671433090</v>
       </c>
       <c r="G42" s="170" t="s">
         <v>590</v>
       </c>
-      <c r="H42" s="185"/>
+      <c r="H42" s="184"/>
       <c r="I42" s="143"/>
       <c r="J42" s="143"/>
       <c r="K42" s="143" t="s">
@@ -17910,20 +17963,23 @@
       <c r="U42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V42" s="143">
+      <c r="V42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W42" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W42" s="146">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="X42" s="156">
+      <c r="X42" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y42" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -17937,13 +17993,13 @@
       <c r="E43" s="165" t="s">
         <v>557</v>
       </c>
-      <c r="F43" s="186">
+      <c r="F43" s="185">
         <v>1723101484</v>
       </c>
       <c r="G43" s="169" t="s">
         <v>591</v>
       </c>
-      <c r="H43" s="187"/>
+      <c r="H43" s="186"/>
       <c r="I43" s="143"/>
       <c r="J43" s="143" t="s">
         <v>104</v>
@@ -17963,20 +18019,21 @@
       <c r="S43" s="143"/>
       <c r="T43" s="143"/>
       <c r="U43" s="143"/>
-      <c r="V43" s="143">
+      <c r="V43" s="143"/>
+      <c r="W43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="W43" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="X43" s="156">
+      <c r="X43" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Y43" s="156">
         <f t="shared" si="2"/>
-        <v>23.076923076923077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="15">
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -18000,20 +18057,21 @@
       <c r="S44" s="143"/>
       <c r="T44" s="143"/>
       <c r="U44" s="143"/>
-      <c r="V44" s="143">
+      <c r="V44" s="143"/>
+      <c r="W44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W44" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X44" s="156">
+      <c r="X44" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15">
+    <row r="45" spans="1:25" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -18037,20 +18095,21 @@
       <c r="S45" s="143"/>
       <c r="T45" s="143"/>
       <c r="U45" s="143"/>
-      <c r="V45" s="143">
+      <c r="V45" s="143"/>
+      <c r="W45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W45" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X45" s="156">
+      <c r="X45" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15">
+    <row r="46" spans="1:25" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18074,20 +18133,21 @@
       <c r="S46" s="143"/>
       <c r="T46" s="143"/>
       <c r="U46" s="143"/>
-      <c r="V46" s="143">
-        <f t="shared" si="0"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143">
+        <f>COUNTIF(I46:V46,"P")</f>
         <v>0</v>
       </c>
-      <c r="W46" s="146">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X46" s="156">
+      <c r="X46" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15">
+    <row r="47" spans="1:25" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18145,28 +18205,25 @@
         <v>11</v>
       </c>
       <c r="V47" s="149">
-        <f>COUNTIF(I47:J47,"P")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="150">
-        <f>COUNTBLANK(I47:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="157">
-        <f>AVERAGE(X10:X46)</f>
-        <v>37.941787941787936</v>
+        <v>7</v>
+      </c>
+      <c r="W47" s="149"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="157">
+        <f>AVERAGE(Y10:Y46)</f>
+        <v>36.575586575586556</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:X47"/>
+  <autoFilter ref="A9:Y47"/>
   <mergeCells count="7">
-    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="V6:V9"/>
     <mergeCell ref="W6:W9"/>
+    <mergeCell ref="X6:X9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$Y$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AA$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="598">
   <si>
     <t>S No</t>
   </si>
@@ -3625,7 +3625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3660,7 +3660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15709,13 +15709,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15733,15 +15733,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="22" width="11.28515625" style="77" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="77" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="77" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="24" width="11.28515625" style="77" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="77" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="77" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:25" ht="13.5" thickBot="1">
+    <row r="1" spans="1:27" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:27" ht="13.5" thickBot="1">
       <c r="B2" s="228" t="s">
         <v>17</v>
       </c>
@@ -15749,29 +15749,29 @@
       <c r="D2" s="230"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:27">
       <c r="B3" s="231" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="232"/>
       <c r="D3" s="135">
-        <f>SUM(I8:V8)</f>
-        <v>42</v>
+        <f>SUM(I8:X8)</f>
+        <v>48</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" thickBot="1">
+    <row r="4" spans="1:27" ht="13.5" thickBot="1">
       <c r="B4" s="233" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="137">
-        <f>Y47</f>
-        <v>36.575586575586556</v>
+        <f>AA47</f>
+        <v>36.74549549549549</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:25" ht="15">
+    <row r="6" spans="1:27" ht="15">
       <c r="A6" s="235" t="s">
         <v>595</v>
       </c>
@@ -15826,17 +15826,23 @@
       <c r="V6" s="139">
         <v>42419</v>
       </c>
-      <c r="W6" s="236" t="s">
+      <c r="W6" s="139">
+        <v>42423</v>
+      </c>
+      <c r="X6" s="139">
+        <v>42426</v>
+      </c>
+      <c r="Y6" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="236" t="s">
+      <c r="Z6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="227" t="s">
+      <c r="AA6" s="227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" s="235"/>
       <c r="B7" s="235"/>
       <c r="C7" s="235"/>
@@ -15889,11 +15895,17 @@
       <c r="V7" s="142" t="s">
         <v>596</v>
       </c>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="227"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="W7" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="X7" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y7" s="236"/>
+      <c r="Z7" s="236"/>
+      <c r="AA7" s="227"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="235"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -15948,11 +15960,17 @@
       <c r="V8" s="159">
         <v>3</v>
       </c>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="227"/>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" thickBot="1">
+      <c r="W8" s="159">
+        <v>3</v>
+      </c>
+      <c r="X8" s="159">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="227"/>
+    </row>
+    <row r="9" spans="1:27" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -16019,11 +16037,17 @@
       <c r="V9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="W9" s="236"/>
-      <c r="X9" s="236"/>
-      <c r="Y9" s="227"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1">
+      <c r="W9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="X9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y9" s="236"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="227"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16088,20 +16112,26 @@
       <c r="V10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W10" s="143">
-        <f t="shared" ref="W10:W45" si="0">COUNTIF(I10:V10,"P")</f>
-        <v>14</v>
-      </c>
-      <c r="X10" s="146">
-        <f>COUNTBLANK(I10:V10)</f>
+      <c r="W10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" s="143">
+        <f t="shared" ref="Y10:Y45" si="0">COUNTIF(I10:X10,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="Z10" s="146">
+        <f>COUNTBLANK(I10:X10)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="156">
-        <f>W10*100/SUM(W10:X10)</f>
+      <c r="AA10" s="156">
+        <f>Y10*100/SUM(Y10:Z10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16166,20 +16196,26 @@
       <c r="V11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W11" s="143">
+      <c r="W11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y11" s="143">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="X11" s="146">
-        <f t="shared" ref="X11:X46" si="1">COUNTBLANK(I11:V11)</f>
+        <v>16</v>
+      </c>
+      <c r="Z11" s="146">
+        <f t="shared" ref="Z11:Z46" si="1">COUNTBLANK(I11:X11)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="156">
-        <f>W11*100/SUM(W11:X11)</f>
+      <c r="AA11" s="156">
+        <f>Y11*100/SUM(Y11:Z11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16214,20 +16250,22 @@
       <c r="T12" s="143"/>
       <c r="U12" s="143"/>
       <c r="V12" s="143"/>
-      <c r="W12" s="143">
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X12" s="146">
+      <c r="Z12" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y12" s="156">
-        <f t="shared" ref="Y12:Y46" si="2">W12*100/SUM(W12:X12)</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="156">
+        <f t="shared" ref="AA12:AA46" si="2">Y12*100/SUM(Y12:Z12)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16292,20 +16330,26 @@
       <c r="V13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W13" s="143">
+      <c r="W13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y13" s="143">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="X13" s="146">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="156">
+      <c r="AA13" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16352,20 +16396,26 @@
         <v>104</v>
       </c>
       <c r="V14" s="143"/>
-      <c r="W14" s="143">
+      <c r="W14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="X14" s="146">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Y14" s="156">
+      <c r="AA14" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16410,20 +16460,26 @@
         <v>104</v>
       </c>
       <c r="V15" s="143"/>
-      <c r="W15" s="143">
+      <c r="W15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="X15" s="146">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="146">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Y15" s="156">
+      <c r="AA15" s="156">
         <f t="shared" si="2"/>
-        <v>42.857142857142854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="178" customFormat="1" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="178" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16460,20 +16516,22 @@
       <c r="T16" s="175"/>
       <c r="U16" s="175"/>
       <c r="V16" s="175"/>
-      <c r="W16" s="143">
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X16" s="146">
+      <c r="Z16" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y16" s="177">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16532,20 +16590,26 @@
         <v>104</v>
       </c>
       <c r="V17" s="143"/>
-      <c r="W17" s="143">
+      <c r="W17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y17" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X17" s="146">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y17" s="156">
+      <c r="AA17" s="156">
         <f t="shared" si="2"/>
-        <v>78.571428571428569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16606,20 +16670,26 @@
         <v>104</v>
       </c>
       <c r="V18" s="143"/>
-      <c r="W18" s="143">
+      <c r="W18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y18" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="X18" s="146">
+        <v>14</v>
+      </c>
+      <c r="Z18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y18" s="156">
+      <c r="AA18" s="156">
         <f t="shared" si="2"/>
-        <v>85.714285714285708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16678,20 +16748,24 @@
       </c>
       <c r="U19" s="143"/>
       <c r="V19" s="143"/>
-      <c r="W19" s="143">
+      <c r="W19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X19" s="146">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="146">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y19" s="156">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="156">
         <f t="shared" si="2"/>
-        <v>78.571428571428569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16734,20 +16808,24 @@
       <c r="T20" s="143"/>
       <c r="U20" s="143"/>
       <c r="V20" s="143"/>
-      <c r="W20" s="143">
+      <c r="W20" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="X20" s="146">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="146">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Y20" s="156">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="156">
         <f t="shared" si="2"/>
-        <v>28.571428571428573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16790,20 +16868,22 @@
       <c r="T21" s="143"/>
       <c r="U21" s="143"/>
       <c r="V21" s="143"/>
-      <c r="W21" s="143">
+      <c r="W21" s="143"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="X21" s="146">
+      <c r="Z21" s="146">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y21" s="156">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="156">
         <f t="shared" si="2"/>
-        <v>35.714285714285715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16868,20 +16948,26 @@
       <c r="V22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W22" s="143">
+      <c r="W22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22" s="143">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="X22" s="146">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="156">
+      <c r="AA22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16926,20 +17012,22 @@
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
       <c r="V23" s="143"/>
-      <c r="W23" s="143">
+      <c r="W23" s="143"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="X23" s="146">
+      <c r="Z23" s="146">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y23" s="156">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="156">
         <f t="shared" si="2"/>
-        <v>35.714285714285715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16986,20 +17074,24 @@
       <c r="T24" s="143"/>
       <c r="U24" s="143"/>
       <c r="V24" s="143"/>
-      <c r="W24" s="143">
+      <c r="W24" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="X24" s="146">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y24" s="156">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="156">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17062,20 +17154,26 @@
       <c r="V25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W25" s="143">
+      <c r="W25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y25" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="X25" s="146">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="156">
+      <c r="AA25" s="156">
         <f t="shared" si="2"/>
-        <v>92.857142857142861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17138,20 +17236,26 @@
       <c r="V26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W26" s="143">
+      <c r="W26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y26" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="X26" s="146">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="156">
+      <c r="AA26" s="156">
         <f t="shared" si="2"/>
-        <v>92.857142857142861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17190,20 +17294,24 @@
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
       <c r="V27" s="143"/>
-      <c r="W27" s="143">
+      <c r="W27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="143">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="146">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y27" s="156">
+        <v>14</v>
+      </c>
+      <c r="AA27" s="156">
         <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17236,20 +17344,22 @@
       <c r="T28" s="143"/>
       <c r="U28" s="143"/>
       <c r="V28" s="143"/>
-      <c r="W28" s="143">
+      <c r="W28" s="143"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X28" s="146">
+      <c r="Z28" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y28" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17304,20 +17414,26 @@
       </c>
       <c r="U29" s="143"/>
       <c r="V29" s="143"/>
-      <c r="W29" s="143">
-        <f>COUNTIF(I29:V29,"P")</f>
-        <v>9</v>
-      </c>
-      <c r="X29" s="146">
+      <c r="W29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y29" s="143">
+        <f>COUNTIF(I29:X29,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="Z29" s="146">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Y29" s="156">
+      <c r="AA29" s="156">
         <f t="shared" si="2"/>
-        <v>64.285714285714292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17360,20 +17476,22 @@
       <c r="T30" s="143"/>
       <c r="U30" s="143"/>
       <c r="V30" s="143"/>
-      <c r="W30" s="143">
+      <c r="W30" s="143"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X30" s="146">
+      <c r="Z30" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Y30" s="156">
+        <v>13</v>
+      </c>
+      <c r="AA30" s="156">
         <f t="shared" si="2"/>
-        <v>21.428571428571427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17406,20 +17524,22 @@
       <c r="T31" s="143"/>
       <c r="U31" s="143"/>
       <c r="V31" s="143"/>
-      <c r="W31" s="143">
+      <c r="W31" s="143"/>
+      <c r="X31" s="143"/>
+      <c r="Y31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X31" s="146">
+      <c r="Z31" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y31" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75" thickBot="1">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17456,20 +17576,22 @@
       <c r="T32" s="143"/>
       <c r="U32" s="143"/>
       <c r="V32" s="143"/>
-      <c r="W32" s="143">
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X32" s="146">
+      <c r="Z32" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y32" s="156">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="156">
         <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" thickBot="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17520,20 +17642,22 @@
       <c r="T33" s="143"/>
       <c r="U33" s="143"/>
       <c r="V33" s="143"/>
-      <c r="W33" s="143">
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="X33" s="146">
+      <c r="Z33" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Y33" s="156">
+        <v>7</v>
+      </c>
+      <c r="AA33" s="156">
         <f t="shared" si="2"/>
-        <v>64.285714285714292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" thickBot="1">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17566,20 +17690,22 @@
       <c r="T34" s="143"/>
       <c r="U34" s="143"/>
       <c r="V34" s="143"/>
-      <c r="W34" s="143">
+      <c r="W34" s="143"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X34" s="146">
+      <c r="Z34" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y34" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17614,20 +17740,22 @@
       <c r="T35" s="143"/>
       <c r="U35" s="143"/>
       <c r="V35" s="143"/>
-      <c r="W35" s="143">
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X35" s="146">
+      <c r="Z35" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y35" s="156">
+        <v>15</v>
+      </c>
+      <c r="AA35" s="156">
         <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" thickBot="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17662,20 +17790,22 @@
       <c r="T36" s="143"/>
       <c r="U36" s="143"/>
       <c r="V36" s="143"/>
-      <c r="W36" s="143">
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X36" s="146">
+      <c r="Z36" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Y36" s="156">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="156">
         <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17708,20 +17838,22 @@
       <c r="T37" s="143"/>
       <c r="U37" s="143"/>
       <c r="V37" s="143"/>
-      <c r="W37" s="143">
+      <c r="W37" s="143"/>
+      <c r="X37" s="143"/>
+      <c r="Y37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X37" s="146">
+      <c r="Z37" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y37" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17754,20 +17886,22 @@
       <c r="T38" s="143"/>
       <c r="U38" s="143"/>
       <c r="V38" s="143"/>
-      <c r="W38" s="143">
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X38" s="146">
+      <c r="Z38" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y38" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1">
+    <row r="39" spans="1:27" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -17800,20 +17934,22 @@
       <c r="T39" s="143"/>
       <c r="U39" s="143"/>
       <c r="V39" s="143"/>
-      <c r="W39" s="143">
+      <c r="W39" s="143"/>
+      <c r="X39" s="143"/>
+      <c r="Y39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X39" s="146">
+      <c r="Z39" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y39" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75" thickBot="1">
+    <row r="40" spans="1:27" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -17858,20 +17994,22 @@
       <c r="T40" s="143"/>
       <c r="U40" s="143"/>
       <c r="V40" s="143"/>
-      <c r="W40" s="143">
+      <c r="W40" s="143"/>
+      <c r="X40" s="143"/>
+      <c r="Y40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="X40" s="146">
+      <c r="Z40" s="146">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Y40" s="156">
+        <v>12</v>
+      </c>
+      <c r="AA40" s="156">
         <f t="shared" si="2"/>
-        <v>28.571428571428573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -17904,20 +18042,22 @@
       <c r="T41" s="143"/>
       <c r="U41" s="143"/>
       <c r="V41" s="143"/>
-      <c r="W41" s="143">
-        <f>COUNTIF(I41:V41,"P")</f>
+      <c r="W41" s="143"/>
+      <c r="X41" s="143"/>
+      <c r="Y41" s="143">
+        <f>COUNTIF(I41:X41,"P")</f>
         <v>0</v>
       </c>
-      <c r="X41" s="146">
+      <c r="Z41" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y41" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75" thickBot="1">
+    <row r="42" spans="1:27" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -17966,20 +18106,26 @@
       <c r="V42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="W42" s="143">
+      <c r="W42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y42" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="X42" s="146">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Y42" s="156">
+      <c r="AA42" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" thickBot="1">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -18020,20 +18166,22 @@
       <c r="T43" s="143"/>
       <c r="U43" s="143"/>
       <c r="V43" s="143"/>
-      <c r="W43" s="143">
+      <c r="W43" s="143"/>
+      <c r="X43" s="143"/>
+      <c r="Y43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X43" s="146">
+      <c r="Z43" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Y43" s="156">
+        <v>13</v>
+      </c>
+      <c r="AA43" s="156">
         <f t="shared" si="2"/>
-        <v>21.428571428571427</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -18058,20 +18206,22 @@
       <c r="T44" s="143"/>
       <c r="U44" s="143"/>
       <c r="V44" s="143"/>
-      <c r="W44" s="143">
+      <c r="W44" s="143"/>
+      <c r="X44" s="143"/>
+      <c r="Y44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X44" s="146">
+      <c r="Z44" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y44" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15">
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -18096,20 +18246,22 @@
       <c r="T45" s="143"/>
       <c r="U45" s="143"/>
       <c r="V45" s="143"/>
-      <c r="W45" s="143">
+      <c r="W45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X45" s="146">
+      <c r="Z45" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y45" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15">
+    <row r="46" spans="1:27" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18134,20 +18286,22 @@
       <c r="T46" s="143"/>
       <c r="U46" s="143"/>
       <c r="V46" s="143"/>
-      <c r="W46" s="143">
-        <f>COUNTIF(I46:V46,"P")</f>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143">
+        <f>COUNTIF(I46:X46,"P")</f>
         <v>0</v>
       </c>
-      <c r="X46" s="146">
+      <c r="Z46" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y46" s="156">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15">
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18207,23 +18361,29 @@
       <c r="V47" s="149">
         <v>7</v>
       </c>
-      <c r="W47" s="149"/>
-      <c r="X47" s="150"/>
-      <c r="Y47" s="157">
-        <f>AVERAGE(Y10:Y46)</f>
-        <v>36.575586575586556</v>
+      <c r="W47" s="149">
+        <v>16</v>
+      </c>
+      <c r="X47" s="149">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="149"/>
+      <c r="Z47" s="150"/>
+      <c r="AA47" s="157">
+        <f>AVERAGE(AA10:AA46)</f>
+        <v>36.74549549549549</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:Y47"/>
+  <autoFilter ref="A9:AA47"/>
   <mergeCells count="7">
-    <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="AA6:AA9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="Z6:Z9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AA$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AG$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="600">
   <si>
     <t>S No</t>
   </si>
@@ -1898,6 +1898,12 @@
   </si>
   <si>
     <t>jquery</t>
+  </si>
+  <si>
+    <t>php/MySql</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
   </si>
 </sst>
 </file>
@@ -3399,6 +3405,69 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3432,9 +3501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3444,67 +3510,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3908,18 +3914,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3927,10 +3933,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="199"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3939,13 +3945,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3998,22 +4004,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="206" t="s">
+      <c r="X6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="222" t="s">
+      <c r="Y6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="209" t="s">
+      <c r="Z6" s="192" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4068,16 +4074,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="223"/>
-      <c r="Z7" s="210"/>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="193"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4132,9 +4138,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="207"/>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="210"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="193"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4206,9 +4212,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="224"/>
-      <c r="Z9" s="211"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="209"/>
+      <c r="Z9" s="194"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6881,15 +6887,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="189"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="216" t="s">
+      <c r="A46" s="210"/>
+      <c r="B46" s="211"/>
+      <c r="C46" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="218"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="203"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6954,25 +6960,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="200" t="s">
+      <c r="X46" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="212"/>
-      <c r="Z46" s="214">
+      <c r="Y46" s="196"/>
+      <c r="Z46" s="199">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="191"/>
-      <c r="B47" s="192"/>
-      <c r="C47" s="219" t="s">
+      <c r="A47" s="212"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="220"/>
-      <c r="G47" s="221"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="206"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7037,9 +7043,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="204"/>
-      <c r="Y47" s="213"/>
-      <c r="Z47" s="215"/>
+      <c r="X47" s="197"/>
+      <c r="Y47" s="198"/>
+      <c r="Z47" s="200"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7240,6 +7246,11 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7247,11 +7258,6 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7341,18 +7347,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7360,10 +7366,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="199"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7372,13 +7378,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7413,22 +7419,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="206" t="s">
+      <c r="R6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="222" t="s">
+      <c r="S6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="209" t="s">
+      <c r="T6" s="192" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7465,16 +7471,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="207"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="210"/>
+      <c r="R7" s="190"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="193"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7511,9 +7517,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="207"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="210"/>
+      <c r="R8" s="190"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="193"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7567,9 +7573,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="211"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="194"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10467,13 +10473,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="225"/>
       <c r="B59" s="226"/>
-      <c r="C59" s="216" t="s">
+      <c r="C59" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="217"/>
-      <c r="G59" s="218"/>
+      <c r="D59" s="202"/>
+      <c r="E59" s="202"/>
+      <c r="F59" s="202"/>
+      <c r="G59" s="203"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10514,25 +10520,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="200" t="s">
+      <c r="R59" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="212"/>
-      <c r="T59" s="214">
+      <c r="S59" s="196"/>
+      <c r="T59" s="199">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="191"/>
-      <c r="B60" s="192"/>
-      <c r="C60" s="219" t="s">
+      <c r="A60" s="212"/>
+      <c r="B60" s="213"/>
+      <c r="C60" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="220"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="221"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="206"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10573,12 +10579,17 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="204"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="215"/>
+      <c r="R60" s="197"/>
+      <c r="S60" s="198"/>
+      <c r="T60" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10586,11 +10597,6 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10700,18 +10706,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10719,10 +10725,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="199"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10731,13 +10737,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10769,22 +10775,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="206" t="s">
+      <c r="W6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="222" t="s">
+      <c r="X6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="209" t="s">
+      <c r="Y6" s="192" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10818,16 +10824,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="210"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="193"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10861,9 +10867,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="207"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="210"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="193"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10932,9 +10938,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="208"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="211"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="194"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13354,15 +13360,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="189"/>
-      <c r="B55" s="190"/>
-      <c r="C55" s="216" t="s">
+      <c r="A55" s="210"/>
+      <c r="B55" s="211"/>
+      <c r="C55" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="217"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="217"/>
-      <c r="G55" s="217"/>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="202"/>
+      <c r="G55" s="202"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13423,25 +13429,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="200" t="s">
+      <c r="W55" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="212"/>
-      <c r="Y55" s="214">
+      <c r="X55" s="196"/>
+      <c r="Y55" s="199">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="191"/>
-      <c r="B56" s="192"/>
-      <c r="C56" s="219" t="s">
+      <c r="A56" s="212"/>
+      <c r="B56" s="213"/>
+      <c r="C56" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="220"/>
-      <c r="E56" s="220"/>
-      <c r="F56" s="220"/>
-      <c r="G56" s="220"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="205"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13502,12 +13508,17 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="204"/>
-      <c r="X56" s="213"/>
-      <c r="Y56" s="215"/>
+      <c r="W56" s="197"/>
+      <c r="X56" s="198"/>
+      <c r="Y56" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13515,11 +13526,6 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13609,18 +13615,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13628,10 +13634,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="199"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13640,13 +13646,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13670,22 +13676,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="206" t="s">
+      <c r="W6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="222" t="s">
+      <c r="X6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="209" t="s">
+      <c r="Y6" s="192" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13711,16 +13717,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="210"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="193"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13746,9 +13752,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="207"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="210"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="193"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13817,9 +13823,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="208"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="211"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="194"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15709,13 +15715,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Y28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomRight" activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15733,15 +15739,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="24" width="11.28515625" style="77" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="77" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="77" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="30" width="11.28515625" style="77" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" style="77" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="77" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:27" ht="13.5" thickBot="1">
+    <row r="1" spans="1:33" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:33" ht="13.5" thickBot="1">
       <c r="B2" s="228" t="s">
         <v>17</v>
       </c>
@@ -15749,29 +15755,29 @@
       <c r="D2" s="230"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:33">
       <c r="B3" s="231" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="232"/>
       <c r="D3" s="135">
-        <f>SUM(I8:X8)</f>
-        <v>48</v>
+        <f>SUM(I8:AD8)</f>
+        <v>66</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:27" ht="13.5" thickBot="1">
+    <row r="4" spans="1:33" ht="13.5" thickBot="1">
       <c r="B4" s="233" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="137">
-        <f>AA47</f>
-        <v>36.74549549549549</v>
+        <f>AG47</f>
+        <v>34.836784836784844</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:27" ht="15">
+    <row r="6" spans="1:33" ht="15">
       <c r="A6" s="235" t="s">
         <v>595</v>
       </c>
@@ -15832,17 +15838,35 @@
       <c r="X6" s="139">
         <v>42426</v>
       </c>
-      <c r="Y6" s="236" t="s">
+      <c r="Y6" s="139">
+        <v>42428</v>
+      </c>
+      <c r="Z6" s="139">
+        <v>42430</v>
+      </c>
+      <c r="AA6" s="139">
+        <v>42433</v>
+      </c>
+      <c r="AB6" s="139">
+        <v>42437</v>
+      </c>
+      <c r="AC6" s="139">
+        <v>42442</v>
+      </c>
+      <c r="AD6" s="139">
+        <v>42444</v>
+      </c>
+      <c r="AE6" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="236" t="s">
+      <c r="AF6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="227" t="s">
+      <c r="AG6" s="227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:33">
       <c r="A7" s="235"/>
       <c r="B7" s="235"/>
       <c r="C7" s="235"/>
@@ -15896,16 +15920,34 @@
         <v>596</v>
       </c>
       <c r="W7" s="142" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="X7" s="142" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="227"/>
-    </row>
-    <row r="8" spans="1:27">
+        <v>598</v>
+      </c>
+      <c r="Y7" s="142" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z7" s="142" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA7" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB7" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC7" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD7" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE7" s="236"/>
+      <c r="AF7" s="236"/>
+      <c r="AG7" s="227"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="235"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -15966,11 +16008,29 @@
       <c r="X8" s="159">
         <v>3</v>
       </c>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="227"/>
-    </row>
-    <row r="9" spans="1:27" ht="13.5" thickBot="1">
+      <c r="Y8" s="159">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="236"/>
+      <c r="AG8" s="227"/>
+    </row>
+    <row r="9" spans="1:33" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -16043,11 +16103,29 @@
       <c r="X9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="Y9" s="236"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="227"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1">
+      <c r="Y9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE9" s="236"/>
+      <c r="AF9" s="236"/>
+      <c r="AG9" s="227"/>
+    </row>
+    <row r="10" spans="1:33" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16118,20 +16196,38 @@
       <c r="X10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y10" s="143">
-        <f t="shared" ref="Y10:Y45" si="0">COUNTIF(I10:X10,"P")</f>
-        <v>16</v>
-      </c>
-      <c r="Z10" s="146">
-        <f>COUNTBLANK(I10:X10)</f>
+      <c r="Y10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE10" s="143">
+        <f t="shared" ref="AE10:AE45" si="0">COUNTIF(I10:AD10,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="AF10" s="146">
+        <f>COUNTBLANK(I10:AD10)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="156">
-        <f>Y10*100/SUM(Y10:Z10)</f>
+      <c r="AG10" s="156">
+        <f>AE10*100/SUM(AE10:AF10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16202,20 +16298,38 @@
       <c r="X11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y11" s="143">
+      <c r="Y11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE11" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z11" s="146">
-        <f t="shared" ref="Z11:Z46" si="1">COUNTBLANK(I11:X11)</f>
+        <v>22</v>
+      </c>
+      <c r="AF11" s="146">
+        <f t="shared" ref="AF11:AF46" si="1">COUNTBLANK(I11:AD11)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="156">
-        <f>Y11*100/SUM(Y11:Z11)</f>
+      <c r="AG11" s="156">
+        <f>AE11*100/SUM(AE11:AF11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16252,20 +16366,26 @@
       <c r="V12" s="143"/>
       <c r="W12" s="143"/>
       <c r="X12" s="143"/>
-      <c r="Y12" s="143">
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="146">
+      <c r="AF12" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AA12" s="156">
-        <f t="shared" ref="AA12:AA46" si="2">Y12*100/SUM(Y12:Z12)</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="AG12" s="156">
+        <f t="shared" ref="AG12:AG46" si="2">AE12*100/SUM(AE12:AF12)</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16336,20 +16456,36 @@
       <c r="X13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y13" s="143">
+      <c r="Y13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z13" s="146">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="146">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="156">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="156">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1">
+        <v>95.454545454545453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16402,20 +16538,34 @@
       <c r="X14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" s="143">
+      <c r="Y14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Z14" s="146">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA14" s="156">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="156">
         <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1">
+        <v>57.142857142857146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16466,20 +16616,34 @@
       <c r="X15" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y15" s="143">
+      <c r="Y15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Z15" s="146">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="146">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA15" s="156">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="178" customFormat="1" ht="15.75" thickBot="1">
+        <v>54.545454545454547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="178" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16518,20 +16682,26 @@
       <c r="V16" s="175"/>
       <c r="W16" s="175"/>
       <c r="X16" s="175"/>
-      <c r="Y16" s="143">
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="146">
+      <c r="AF16" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA16" s="177">
+        <v>22</v>
+      </c>
+      <c r="AG16" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16596,20 +16766,36 @@
       <c r="X17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" s="143">
+      <c r="Y17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Z17" s="146">
+        <v>18</v>
+      </c>
+      <c r="AF17" s="146">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA17" s="156">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="156">
         <f t="shared" si="2"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16676,20 +16862,34 @@
       <c r="X18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y18" s="143">
+      <c r="Y18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE18" s="143">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Z18" s="146">
+        <v>18</v>
+      </c>
+      <c r="AF18" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA18" s="156">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="156">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16752,20 +16952,36 @@
         <v>104</v>
       </c>
       <c r="X19" s="143"/>
-      <c r="Y19" s="143">
+      <c r="Y19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE19" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Z19" s="146">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA19" s="156">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>77.272727272727266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16812,20 +17028,28 @@
         <v>104</v>
       </c>
       <c r="X20" s="143"/>
-      <c r="Y20" s="143">
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z20" s="146">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AA20" s="156">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="156">
         <f t="shared" si="2"/>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16870,20 +17094,26 @@
       <c r="V21" s="143"/>
       <c r="W21" s="143"/>
       <c r="X21" s="143"/>
-      <c r="Y21" s="143">
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z21" s="146">
+      <c r="AF21" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AA21" s="156">
+        <v>17</v>
+      </c>
+      <c r="AG21" s="156">
         <f t="shared" si="2"/>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1">
+        <v>22.727272727272727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16954,20 +17184,38 @@
       <c r="X22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y22" s="143">
+      <c r="Y22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE22" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z22" s="146">
+        <v>22</v>
+      </c>
+      <c r="AF22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="156">
+      <c r="AG22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1">
+    <row r="23" spans="1:33" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -17014,20 +17262,26 @@
       <c r="V23" s="143"/>
       <c r="W23" s="143"/>
       <c r="X23" s="143"/>
-      <c r="Y23" s="143">
+      <c r="Y23" s="143"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="143"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z23" s="146">
+      <c r="AF23" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AA23" s="156">
+        <v>17</v>
+      </c>
+      <c r="AG23" s="156">
         <f t="shared" si="2"/>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1">
+        <v>22.727272727272727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -17078,20 +17332,30 @@
         <v>104</v>
       </c>
       <c r="X24" s="143"/>
-      <c r="Y24" s="143">
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA24" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Z24" s="146">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="146">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA24" s="156">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17160,20 +17424,32 @@
       <c r="X25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y25" s="143">
+      <c r="Y25" s="143"/>
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE25" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Z25" s="146">
+        <v>18</v>
+      </c>
+      <c r="AF25" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="156">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="156">
         <f t="shared" si="2"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17242,20 +17518,32 @@
       <c r="X26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y26" s="143">
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE26" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Z26" s="146">
+        <v>18</v>
+      </c>
+      <c r="AF26" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="156">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="156">
         <f t="shared" si="2"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17298,20 +17586,32 @@
         <v>104</v>
       </c>
       <c r="X27" s="143"/>
-      <c r="Y27" s="143">
+      <c r="Y27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC27" s="143"/>
+      <c r="AD27" s="143"/>
+      <c r="AE27" s="143">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z27" s="146">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AA27" s="156">
+        <v>17</v>
+      </c>
+      <c r="AG27" s="156">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1">
+        <v>22.727272727272727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17346,20 +17646,26 @@
       <c r="V28" s="143"/>
       <c r="W28" s="143"/>
       <c r="X28" s="143"/>
-      <c r="Y28" s="143">
+      <c r="Y28" s="143"/>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="143"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="143"/>
+      <c r="AE28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="146">
+      <c r="AF28" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA28" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17420,20 +17726,32 @@
       <c r="X29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y29" s="143">
-        <f>COUNTIF(I29:X29,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="Z29" s="146">
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="143"/>
+      <c r="AE29" s="143">
+        <f>COUNTIF(I29:AD29,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="AF29" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AA29" s="156">
+        <v>8</v>
+      </c>
+      <c r="AG29" s="156">
         <f t="shared" si="2"/>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" thickBot="1">
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17478,20 +17796,26 @@
       <c r="V30" s="143"/>
       <c r="W30" s="143"/>
       <c r="X30" s="143"/>
-      <c r="Y30" s="143">
+      <c r="Y30" s="143"/>
+      <c r="Z30" s="143"/>
+      <c r="AA30" s="143"/>
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Z30" s="146">
+      <c r="AF30" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AA30" s="156">
+        <v>19</v>
+      </c>
+      <c r="AG30" s="156">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" thickBot="1">
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17526,20 +17850,26 @@
       <c r="V31" s="143"/>
       <c r="W31" s="143"/>
       <c r="X31" s="143"/>
-      <c r="Y31" s="143">
+      <c r="Y31" s="143"/>
+      <c r="Z31" s="143"/>
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="146">
+      <c r="AF31" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA31" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" thickBot="1">
+    <row r="32" spans="1:33" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17578,20 +17908,26 @@
       <c r="V32" s="143"/>
       <c r="W32" s="143"/>
       <c r="X32" s="143"/>
-      <c r="Y32" s="143">
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z32" s="146">
+      <c r="AF32" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AA32" s="156">
+        <v>21</v>
+      </c>
+      <c r="AG32" s="156">
         <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17644,20 +17980,26 @@
       <c r="V33" s="143"/>
       <c r="W33" s="143"/>
       <c r="X33" s="143"/>
-      <c r="Y33" s="143">
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Z33" s="146">
+      <c r="AF33" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA33" s="156">
+        <v>13</v>
+      </c>
+      <c r="AG33" s="156">
         <f t="shared" si="2"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" thickBot="1">
+        <v>40.909090909090907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17692,20 +18034,26 @@
       <c r="V34" s="143"/>
       <c r="W34" s="143"/>
       <c r="X34" s="143"/>
-      <c r="Y34" s="143">
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="143"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="146">
+      <c r="AF34" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA34" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1">
+    <row r="35" spans="1:33" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17742,20 +18090,26 @@
       <c r="V35" s="143"/>
       <c r="W35" s="143"/>
       <c r="X35" s="143"/>
-      <c r="Y35" s="143">
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z35" s="146">
+      <c r="AF35" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AA35" s="156">
+        <v>21</v>
+      </c>
+      <c r="AG35" s="156">
         <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17792,20 +18146,26 @@
       <c r="V36" s="143"/>
       <c r="W36" s="143"/>
       <c r="X36" s="143"/>
-      <c r="Y36" s="143">
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z36" s="146">
+      <c r="AF36" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AA36" s="156">
+        <v>21</v>
+      </c>
+      <c r="AG36" s="156">
         <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17840,20 +18200,26 @@
       <c r="V37" s="143"/>
       <c r="W37" s="143"/>
       <c r="X37" s="143"/>
-      <c r="Y37" s="143">
+      <c r="Y37" s="143"/>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="143"/>
+      <c r="AD37" s="143"/>
+      <c r="AE37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="146">
+      <c r="AF37" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA37" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17888,20 +18254,26 @@
       <c r="V38" s="143"/>
       <c r="W38" s="143"/>
       <c r="X38" s="143"/>
-      <c r="Y38" s="143">
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143"/>
+      <c r="AD38" s="143"/>
+      <c r="AE38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="146">
+      <c r="AF38" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA38" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" thickBot="1">
+    <row r="39" spans="1:33" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -17936,20 +18308,26 @@
       <c r="V39" s="143"/>
       <c r="W39" s="143"/>
       <c r="X39" s="143"/>
-      <c r="Y39" s="143">
+      <c r="Y39" s="143"/>
+      <c r="Z39" s="143"/>
+      <c r="AA39" s="143"/>
+      <c r="AB39" s="143"/>
+      <c r="AC39" s="143"/>
+      <c r="AD39" s="143"/>
+      <c r="AE39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="146">
+      <c r="AF39" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA39" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" thickBot="1">
+    <row r="40" spans="1:33" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -17996,20 +18374,26 @@
       <c r="V40" s="143"/>
       <c r="W40" s="143"/>
       <c r="X40" s="143"/>
-      <c r="Y40" s="143">
+      <c r="Y40" s="143"/>
+      <c r="Z40" s="143"/>
+      <c r="AA40" s="143"/>
+      <c r="AB40" s="143"/>
+      <c r="AC40" s="143"/>
+      <c r="AD40" s="143"/>
+      <c r="AE40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z40" s="146">
+      <c r="AF40" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AA40" s="156">
+        <v>18</v>
+      </c>
+      <c r="AG40" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" thickBot="1">
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -18044,20 +18428,26 @@
       <c r="V41" s="143"/>
       <c r="W41" s="143"/>
       <c r="X41" s="143"/>
-      <c r="Y41" s="143">
-        <f>COUNTIF(I41:X41,"P")</f>
+      <c r="Y41" s="143"/>
+      <c r="Z41" s="143"/>
+      <c r="AA41" s="143"/>
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143">
+        <f>COUNTIF(I41:AD41,"P")</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="146">
+      <c r="AF41" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA41" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15.75" thickBot="1">
+    <row r="42" spans="1:33" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -18112,20 +18502,38 @@
       <c r="X42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="Y42" s="143">
+      <c r="Y42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE42" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Z42" s="146">
+        <v>15</v>
+      </c>
+      <c r="AF42" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA42" s="156">
+      <c r="AG42" s="156">
         <f t="shared" si="2"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" thickBot="1">
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -18168,20 +18576,26 @@
       <c r="V43" s="143"/>
       <c r="W43" s="143"/>
       <c r="X43" s="143"/>
-      <c r="Y43" s="143">
+      <c r="Y43" s="143"/>
+      <c r="Z43" s="143"/>
+      <c r="AA43" s="143"/>
+      <c r="AB43" s="143"/>
+      <c r="AC43" s="143"/>
+      <c r="AD43" s="143"/>
+      <c r="AE43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Z43" s="146">
+      <c r="AF43" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AA43" s="156">
+        <v>19</v>
+      </c>
+      <c r="AG43" s="156">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="15">
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -18208,20 +18622,26 @@
       <c r="V44" s="143"/>
       <c r="W44" s="143"/>
       <c r="X44" s="143"/>
-      <c r="Y44" s="143">
+      <c r="Y44" s="143"/>
+      <c r="Z44" s="143"/>
+      <c r="AA44" s="143"/>
+      <c r="AB44" s="143"/>
+      <c r="AC44" s="143"/>
+      <c r="AD44" s="143"/>
+      <c r="AE44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="146">
+      <c r="AF44" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA44" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15">
+    <row r="45" spans="1:33" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -18248,20 +18668,26 @@
       <c r="V45" s="143"/>
       <c r="W45" s="143"/>
       <c r="X45" s="143"/>
-      <c r="Y45" s="143">
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="143"/>
+      <c r="AC45" s="143"/>
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="146">
+      <c r="AF45" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA45" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15">
+    <row r="46" spans="1:33" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18288,20 +18714,26 @@
       <c r="V46" s="143"/>
       <c r="W46" s="143"/>
       <c r="X46" s="143"/>
-      <c r="Y46" s="143">
-        <f>COUNTIF(I46:X46,"P")</f>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="143"/>
+      <c r="AE46" s="143">
+        <f>COUNTIF(I46:AD46,"P")</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="146">
+      <c r="AF46" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AA46" s="156">
+        <v>22</v>
+      </c>
+      <c r="AG46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15">
+    <row r="47" spans="1:33" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18367,23 +18799,41 @@
       <c r="X47" s="149">
         <v>12</v>
       </c>
-      <c r="Y47" s="149"/>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="157">
-        <f>AVERAGE(AA10:AA46)</f>
-        <v>36.74549549549549</v>
+      <c r="Y47" s="149">
+        <v>11</v>
+      </c>
+      <c r="Z47" s="149">
+        <v>14</v>
+      </c>
+      <c r="AA47" s="149">
+        <v>12</v>
+      </c>
+      <c r="AB47" s="149">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="149">
+        <v>12</v>
+      </c>
+      <c r="AD47" s="149">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="149"/>
+      <c r="AF47" s="150"/>
+      <c r="AG47" s="157">
+        <f>AVERAGE(AG10:AG46)</f>
+        <v>34.836784836784844</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AA47"/>
+  <autoFilter ref="A9:AG47"/>
   <mergeCells count="7">
-    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="AG6:AG9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="Z6:Z9"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="AF6:AF9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AG$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AI$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="601">
   <si>
     <t>S No</t>
   </si>
@@ -1904,6 +1904,9 @@
   </si>
   <si>
     <t>Wordpress</t>
+  </si>
+  <si>
+    <t>Laravel</t>
   </si>
 </sst>
 </file>
@@ -15715,13 +15718,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Y28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Y24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD47" sqref="AD47"/>
+      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15739,15 +15742,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="30" width="11.28515625" style="77" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" style="77" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="77" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="32" width="11.28515625" style="77" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" style="77" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="77" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:33" ht="13.5" thickBot="1">
+    <row r="1" spans="1:35" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:35" ht="13.5" thickBot="1">
       <c r="B2" s="228" t="s">
         <v>17</v>
       </c>
@@ -15755,29 +15758,29 @@
       <c r="D2" s="230"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:35">
       <c r="B3" s="231" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="232"/>
       <c r="D3" s="135">
-        <f>SUM(I8:AD8)</f>
-        <v>66</v>
+        <f>SUM(I8:AF8)</f>
+        <v>72</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:33" ht="13.5" thickBot="1">
+    <row r="4" spans="1:35" ht="13.5" thickBot="1">
       <c r="B4" s="233" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="137">
-        <f>AG47</f>
-        <v>34.836784836784844</v>
+        <f>AI47</f>
+        <v>33.729925577751672</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:33" ht="15">
+    <row r="6" spans="1:35" ht="15">
       <c r="A6" s="235" t="s">
         <v>595</v>
       </c>
@@ -15856,17 +15859,23 @@
       <c r="AD6" s="139">
         <v>42444</v>
       </c>
-      <c r="AE6" s="236" t="s">
+      <c r="AE6" s="139">
+        <v>42447</v>
+      </c>
+      <c r="AF6" s="139">
+        <v>42449</v>
+      </c>
+      <c r="AG6" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="AF6" s="236" t="s">
+      <c r="AH6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="AG6" s="227" t="s">
+      <c r="AI6" s="227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:35">
       <c r="A7" s="235"/>
       <c r="B7" s="235"/>
       <c r="C7" s="235"/>
@@ -15943,11 +15952,17 @@
       <c r="AD7" s="142" t="s">
         <v>599</v>
       </c>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="236"/>
-      <c r="AG7" s="227"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AE7" s="142" t="s">
+        <v>600</v>
+      </c>
+      <c r="AF7" s="142" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG7" s="236"/>
+      <c r="AH7" s="236"/>
+      <c r="AI7" s="227"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="235"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -16026,11 +16041,17 @@
       <c r="AD8" s="159">
         <v>3</v>
       </c>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="236"/>
-      <c r="AG8" s="227"/>
-    </row>
-    <row r="9" spans="1:33" ht="13.5" thickBot="1">
+      <c r="AE8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="236"/>
+      <c r="AH8" s="236"/>
+      <c r="AI8" s="227"/>
+    </row>
+    <row r="9" spans="1:35" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -16121,11 +16142,17 @@
       <c r="AD9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="AE9" s="236"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="227"/>
-    </row>
-    <row r="10" spans="1:33" ht="15.75" thickBot="1">
+      <c r="AE9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG9" s="236"/>
+      <c r="AH9" s="236"/>
+      <c r="AI9" s="227"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16214,20 +16241,26 @@
       <c r="AD10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE10" s="143">
-        <f t="shared" ref="AE10:AE45" si="0">COUNTIF(I10:AD10,"P")</f>
-        <v>22</v>
-      </c>
-      <c r="AF10" s="146">
-        <f>COUNTBLANK(I10:AD10)</f>
+      <c r="AE10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG10" s="143">
+        <f t="shared" ref="AG10:AG45" si="0">COUNTIF(I10:AF10,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="AH10" s="146">
+        <f>COUNTBLANK(I10:AF10)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="156">
-        <f>AE10*100/SUM(AE10:AF10)</f>
+      <c r="AI10" s="156">
+        <f>AG10*100/SUM(AG10:AH10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.75" thickBot="1">
+    <row r="11" spans="1:35" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16316,20 +16349,26 @@
       <c r="AD11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE11" s="143">
+      <c r="AE11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG11" s="143">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AF11" s="146">
-        <f t="shared" ref="AF11:AF46" si="1">COUNTBLANK(I11:AD11)</f>
+        <v>24</v>
+      </c>
+      <c r="AH11" s="146">
+        <f t="shared" ref="AH11:AH46" si="1">COUNTBLANK(I11:AF11)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="156">
-        <f>AE11*100/SUM(AE11:AF11)</f>
+      <c r="AI11" s="156">
+        <f>AG11*100/SUM(AG11:AH11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" thickBot="1">
+    <row r="12" spans="1:35" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16372,20 +16411,22 @@
       <c r="AB12" s="143"/>
       <c r="AC12" s="143"/>
       <c r="AD12" s="143"/>
-      <c r="AE12" s="143">
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF12" s="146">
+      <c r="AH12" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AG12" s="156">
-        <f t="shared" ref="AG12:AG46" si="2">AE12*100/SUM(AE12:AF12)</f>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="15.75" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="156">
+        <f t="shared" ref="AI12:AI46" si="2">AG12*100/SUM(AG12:AH12)</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16472,20 +16513,24 @@
         <v>104</v>
       </c>
       <c r="AD13" s="143"/>
-      <c r="AE13" s="143">
+      <c r="AE13" s="143"/>
+      <c r="AF13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG13" s="143">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AF13" s="146">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG13" s="156">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="156">
         <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16552,20 +16597,22 @@
         <v>104</v>
       </c>
       <c r="AD14" s="143"/>
-      <c r="AE14" s="143">
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AF14" s="146">
+      <c r="AH14" s="146">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AG14" s="156">
+        <v>11</v>
+      </c>
+      <c r="AI14" s="156">
         <f t="shared" si="2"/>
-        <v>57.142857142857146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="15.75" thickBot="1">
+        <v>52.173913043478258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16630,20 +16677,22 @@
         <v>104</v>
       </c>
       <c r="AD15" s="143"/>
-      <c r="AE15" s="143">
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AF15" s="146">
+      <c r="AH15" s="146">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AG15" s="156">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="156">
         <f t="shared" si="2"/>
-        <v>54.545454545454547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="178" customFormat="1" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="178" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16688,20 +16737,22 @@
       <c r="AB16" s="175"/>
       <c r="AC16" s="175"/>
       <c r="AD16" s="175"/>
-      <c r="AE16" s="143">
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="146">
+      <c r="AH16" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG16" s="177">
+        <v>24</v>
+      </c>
+      <c r="AI16" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" thickBot="1">
+    <row r="17" spans="1:35" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16782,20 +16833,26 @@
       <c r="AD17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE17" s="143">
+      <c r="AE17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG17" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AF17" s="146">
+        <v>20</v>
+      </c>
+      <c r="AH17" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG17" s="156">
+      <c r="AI17" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16876,20 +16933,26 @@
       <c r="AD18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" s="143">
+      <c r="AE18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG18" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AF18" s="146">
+        <v>20</v>
+      </c>
+      <c r="AH18" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG18" s="156">
+      <c r="AI18" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16968,20 +17031,22 @@
       <c r="AD19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" s="143">
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AF19" s="146">
+      <c r="AH19" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AG19" s="156">
+        <v>7</v>
+      </c>
+      <c r="AI19" s="156">
         <f t="shared" si="2"/>
-        <v>77.272727272727266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>70.833333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -17036,20 +17101,22 @@
         <v>104</v>
       </c>
       <c r="AD20" s="143"/>
-      <c r="AE20" s="143">
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AF20" s="146">
+      <c r="AH20" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AG20" s="156">
+        <v>18</v>
+      </c>
+      <c r="AI20" s="156">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -17100,20 +17167,22 @@
       <c r="AB21" s="143"/>
       <c r="AC21" s="143"/>
       <c r="AD21" s="143"/>
-      <c r="AE21" s="143">
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF21" s="146">
+      <c r="AH21" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AG21" s="156">
+        <v>19</v>
+      </c>
+      <c r="AI21" s="156">
         <f t="shared" si="2"/>
-        <v>22.727272727272727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15.75" thickBot="1">
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -17202,20 +17271,26 @@
       <c r="AD22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE22" s="143">
+      <c r="AE22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG22" s="143">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AF22" s="146">
+        <v>24</v>
+      </c>
+      <c r="AH22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="156">
+      <c r="AI22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:35" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -17268,20 +17343,22 @@
       <c r="AB23" s="143"/>
       <c r="AC23" s="143"/>
       <c r="AD23" s="143"/>
-      <c r="AE23" s="143">
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF23" s="146">
+      <c r="AH23" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AG23" s="156">
+        <v>19</v>
+      </c>
+      <c r="AI23" s="156">
         <f t="shared" si="2"/>
-        <v>22.727272727272727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" thickBot="1">
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -17342,20 +17419,22 @@
       <c r="AB24" s="143"/>
       <c r="AC24" s="143"/>
       <c r="AD24" s="143"/>
-      <c r="AE24" s="143">
+      <c r="AE24" s="143"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="143">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AF24" s="146">
+      <c r="AH24" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AG24" s="156">
+        <v>14</v>
+      </c>
+      <c r="AI24" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17436,20 +17515,22 @@
       <c r="AD25" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" s="143">
+      <c r="AE25" s="143"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="143">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AF25" s="146">
+      <c r="AH25" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AG25" s="156">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17530,20 +17611,22 @@
       <c r="AD26" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE26" s="143">
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AF26" s="146">
+      <c r="AH26" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AG26" s="156">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17598,20 +17681,24 @@
       </c>
       <c r="AC27" s="143"/>
       <c r="AD27" s="143"/>
-      <c r="AE27" s="143">
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG27" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AF27" s="146">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AG27" s="156">
+        <v>18</v>
+      </c>
+      <c r="AI27" s="156">
         <f t="shared" si="2"/>
-        <v>22.727272727272727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17652,20 +17739,22 @@
       <c r="AB28" s="143"/>
       <c r="AC28" s="143"/>
       <c r="AD28" s="143"/>
-      <c r="AE28" s="143">
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="146">
+      <c r="AH28" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG28" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" thickBot="1">
+    <row r="29" spans="1:35" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17738,20 +17827,26 @@
       </c>
       <c r="AC29" s="143"/>
       <c r="AD29" s="143"/>
-      <c r="AE29" s="143">
-        <f>COUNTIF(I29:AD29,"P")</f>
-        <v>14</v>
-      </c>
-      <c r="AF29" s="146">
+      <c r="AE29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF29" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG29" s="143">
+        <f>COUNTIF(I29:AF29,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="AH29" s="146">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AG29" s="156">
+      <c r="AI29" s="156">
         <f t="shared" si="2"/>
-        <v>63.636363636363633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="15.75" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17802,20 +17897,22 @@
       <c r="AB30" s="143"/>
       <c r="AC30" s="143"/>
       <c r="AD30" s="143"/>
-      <c r="AE30" s="143">
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AF30" s="146">
+      <c r="AH30" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AG30" s="156">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="156">
         <f t="shared" si="2"/>
-        <v>13.636363636363637</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="15.75" thickBot="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17856,20 +17953,22 @@
       <c r="AB31" s="143"/>
       <c r="AC31" s="143"/>
       <c r="AD31" s="143"/>
-      <c r="AE31" s="143">
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="146">
+      <c r="AH31" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG31" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" thickBot="1">
+    <row r="32" spans="1:35" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17914,20 +18013,22 @@
       <c r="AB32" s="143"/>
       <c r="AC32" s="143"/>
       <c r="AD32" s="143"/>
-      <c r="AE32" s="143">
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF32" s="146">
+      <c r="AH32" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AG32" s="156">
+        <v>23</v>
+      </c>
+      <c r="AI32" s="156">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="15.75" thickBot="1">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17986,20 +18087,22 @@
       <c r="AB33" s="143"/>
       <c r="AC33" s="143"/>
       <c r="AD33" s="143"/>
-      <c r="AE33" s="143">
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AF33" s="146">
+      <c r="AH33" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AG33" s="156">
+        <v>15</v>
+      </c>
+      <c r="AI33" s="156">
         <f t="shared" si="2"/>
-        <v>40.909090909090907</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="15.75" thickBot="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -18040,20 +18143,22 @@
       <c r="AB34" s="143"/>
       <c r="AC34" s="143"/>
       <c r="AD34" s="143"/>
-      <c r="AE34" s="143">
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="146">
+      <c r="AH34" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG34" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" thickBot="1">
+    <row r="35" spans="1:35" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -18096,20 +18201,22 @@
       <c r="AB35" s="143"/>
       <c r="AC35" s="143"/>
       <c r="AD35" s="143"/>
-      <c r="AE35" s="143">
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF35" s="146">
+      <c r="AH35" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AG35" s="156">
+        <v>23</v>
+      </c>
+      <c r="AI35" s="156">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="15.75" thickBot="1">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -18152,20 +18259,22 @@
       <c r="AB36" s="143"/>
       <c r="AC36" s="143"/>
       <c r="AD36" s="143"/>
-      <c r="AE36" s="143">
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF36" s="146">
+      <c r="AH36" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AG36" s="156">
+        <v>23</v>
+      </c>
+      <c r="AI36" s="156">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="15.75" thickBot="1">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -18206,20 +18315,22 @@
       <c r="AB37" s="143"/>
       <c r="AC37" s="143"/>
       <c r="AD37" s="143"/>
-      <c r="AE37" s="143">
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF37" s="146">
+      <c r="AH37" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG37" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" thickBot="1">
+    <row r="38" spans="1:35" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -18260,20 +18371,22 @@
       <c r="AB38" s="143"/>
       <c r="AC38" s="143"/>
       <c r="AD38" s="143"/>
-      <c r="AE38" s="143">
+      <c r="AE38" s="143"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="146">
+      <c r="AH38" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG38" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" thickBot="1">
+    <row r="39" spans="1:35" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -18314,20 +18427,22 @@
       <c r="AB39" s="143"/>
       <c r="AC39" s="143"/>
       <c r="AD39" s="143"/>
-      <c r="AE39" s="143">
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="146">
+      <c r="AH39" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG39" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" thickBot="1">
+    <row r="40" spans="1:35" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -18380,20 +18495,22 @@
       <c r="AB40" s="143"/>
       <c r="AC40" s="143"/>
       <c r="AD40" s="143"/>
-      <c r="AE40" s="143">
+      <c r="AE40" s="143"/>
+      <c r="AF40" s="143"/>
+      <c r="AG40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AF40" s="146">
+      <c r="AH40" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AG40" s="156">
+        <v>20</v>
+      </c>
+      <c r="AI40" s="156">
         <f t="shared" si="2"/>
-        <v>18.181818181818183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="15.75" thickBot="1">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -18434,20 +18551,22 @@
       <c r="AB41" s="143"/>
       <c r="AC41" s="143"/>
       <c r="AD41" s="143"/>
-      <c r="AE41" s="143">
-        <f>COUNTIF(I41:AD41,"P")</f>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143">
+        <f>COUNTIF(I41:AF41,"P")</f>
         <v>0</v>
       </c>
-      <c r="AF41" s="146">
+      <c r="AH41" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG41" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" thickBot="1">
+    <row r="42" spans="1:35" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -18520,20 +18639,26 @@
       <c r="AD42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AE42" s="143">
+      <c r="AE42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF42" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG42" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AF42" s="146">
+        <v>17</v>
+      </c>
+      <c r="AH42" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AG42" s="156">
+      <c r="AI42" s="156">
         <f t="shared" si="2"/>
-        <v>68.181818181818187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" ht="15.75" thickBot="1">
+        <v>70.833333333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -18582,20 +18707,22 @@
       <c r="AB43" s="143"/>
       <c r="AC43" s="143"/>
       <c r="AD43" s="143"/>
-      <c r="AE43" s="143">
+      <c r="AE43" s="143"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AF43" s="146">
+      <c r="AH43" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AG43" s="156">
+        <v>21</v>
+      </c>
+      <c r="AI43" s="156">
         <f t="shared" si="2"/>
-        <v>13.636363636363637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -18628,20 +18755,22 @@
       <c r="AB44" s="143"/>
       <c r="AC44" s="143"/>
       <c r="AD44" s="143"/>
-      <c r="AE44" s="143">
+      <c r="AE44" s="143"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="146">
+      <c r="AH44" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG44" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15">
+    <row r="45" spans="1:35" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -18674,20 +18803,22 @@
       <c r="AB45" s="143"/>
       <c r="AC45" s="143"/>
       <c r="AD45" s="143"/>
-      <c r="AE45" s="143">
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF45" s="146">
+      <c r="AH45" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG45" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15">
+    <row r="46" spans="1:35" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18720,20 +18851,22 @@
       <c r="AB46" s="143"/>
       <c r="AC46" s="143"/>
       <c r="AD46" s="143"/>
-      <c r="AE46" s="143">
-        <f>COUNTIF(I46:AD46,"P")</f>
+      <c r="AE46" s="143"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="143">
+        <f>COUNTIF(I46:AF46,"P")</f>
         <v>0</v>
       </c>
-      <c r="AF46" s="146">
+      <c r="AH46" s="146">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AG46" s="156">
+        <v>24</v>
+      </c>
+      <c r="AI46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15">
+    <row r="47" spans="1:35" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18817,23 +18950,29 @@
       <c r="AD47" s="149">
         <v>9</v>
       </c>
-      <c r="AE47" s="149"/>
-      <c r="AF47" s="150"/>
-      <c r="AG47" s="157">
-        <f>AVERAGE(AG10:AG46)</f>
-        <v>34.836784836784844</v>
+      <c r="AE47" s="149">
+        <v>7</v>
+      </c>
+      <c r="AF47" s="149">
+        <v>9</v>
+      </c>
+      <c r="AG47" s="149"/>
+      <c r="AH47" s="150"/>
+      <c r="AI47" s="157">
+        <f>AVERAGE(AI10:AI46)</f>
+        <v>33.729925577751672</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AG47"/>
+  <autoFilter ref="A9:AI47"/>
   <mergeCells count="7">
-    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AI6:AI9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="AE6:AE9"/>
-    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch1_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AI$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jan-_feb_16'!$A$9:$AJ$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="601">
   <si>
     <t>S No</t>
   </si>
@@ -3408,6 +3408,57 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3426,15 +3477,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3469,51 +3514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3917,18 +3917,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3936,10 +3936,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="220"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -4007,22 +4007,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="189" t="s">
+      <c r="X6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="207" t="s">
+      <c r="Y6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="192" t="s">
+      <c r="Z6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="222"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -4077,16 +4077,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="208"/>
-      <c r="Z7" s="193"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="223"/>
+      <c r="Z7" s="210"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4141,9 +4141,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="193"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="210"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4215,9 +4215,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="209"/>
-      <c r="Z9" s="194"/>
+      <c r="X9" s="208"/>
+      <c r="Y9" s="224"/>
+      <c r="Z9" s="211"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6890,15 +6890,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="210"/>
-      <c r="B46" s="211"/>
-      <c r="C46" s="201" t="s">
+      <c r="A46" s="189"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="203"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="218"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6963,25 +6963,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="195" t="s">
+      <c r="X46" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="196"/>
-      <c r="Z46" s="199">
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="214">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="212"/>
-      <c r="B47" s="213"/>
-      <c r="C47" s="204" t="s">
+      <c r="A47" s="191"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
-      <c r="G47" s="206"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="221"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -7046,9 +7046,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="197"/>
-      <c r="Y47" s="198"/>
-      <c r="Z47" s="200"/>
+      <c r="X47" s="204"/>
+      <c r="Y47" s="213"/>
+      <c r="Z47" s="215"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7249,11 +7249,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7261,6 +7256,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7350,18 +7350,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7369,10 +7369,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="220"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7381,13 +7381,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7422,22 +7422,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="189" t="s">
+      <c r="R6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="207" t="s">
+      <c r="S6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="222"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7474,16 +7474,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="193"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="210"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7520,9 +7520,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="193"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7576,9 +7576,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="191"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="194"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="211"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10476,13 +10476,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="225"/>
       <c r="B59" s="226"/>
-      <c r="C59" s="201" t="s">
+      <c r="C59" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="202"/>
-      <c r="E59" s="202"/>
-      <c r="F59" s="202"/>
-      <c r="G59" s="203"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
+      <c r="F59" s="217"/>
+      <c r="G59" s="218"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10523,25 +10523,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="195" t="s">
+      <c r="R59" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="196"/>
-      <c r="T59" s="199">
+      <c r="S59" s="212"/>
+      <c r="T59" s="214">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="212"/>
-      <c r="B60" s="213"/>
-      <c r="C60" s="204" t="s">
+      <c r="A60" s="191"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="206"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="221"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10582,17 +10582,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="197"/>
-      <c r="S60" s="198"/>
-      <c r="T60" s="200"/>
+      <c r="R60" s="204"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10600,6 +10595,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10709,18 +10709,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10728,10 +10728,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="220"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10740,13 +10740,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10778,22 +10778,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="189" t="s">
+      <c r="W6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="207" t="s">
+      <c r="X6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="192" t="s">
+      <c r="Y6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="222"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10827,16 +10827,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="193"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="210"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10870,9 +10870,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="193"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="210"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10941,9 +10941,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="191"/>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="194"/>
+      <c r="W9" s="208"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="211"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13363,15 +13363,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="210"/>
-      <c r="B55" s="211"/>
-      <c r="C55" s="201" t="s">
+      <c r="A55" s="189"/>
+      <c r="B55" s="190"/>
+      <c r="C55" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="202"/>
-      <c r="E55" s="202"/>
-      <c r="F55" s="202"/>
-      <c r="G55" s="202"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13432,25 +13432,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="195" t="s">
+      <c r="W55" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="196"/>
-      <c r="Y55" s="199">
+      <c r="X55" s="212"/>
+      <c r="Y55" s="214">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="212"/>
-      <c r="B56" s="213"/>
-      <c r="C56" s="204" t="s">
+      <c r="A56" s="191"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
+      <c r="D56" s="220"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="220"/>
+      <c r="G56" s="220"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13511,17 +13511,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="197"/>
-      <c r="X56" s="198"/>
-      <c r="Y56" s="200"/>
+      <c r="W56" s="204"/>
+      <c r="X56" s="213"/>
+      <c r="Y56" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13529,6 +13524,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13618,18 +13618,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13637,10 +13637,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="220"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13649,13 +13649,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13679,22 +13679,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="189" t="s">
+      <c r="W6" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="207" t="s">
+      <c r="X6" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="192" t="s">
+      <c r="Y6" s="209" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="222"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13720,16 +13720,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="193"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="210"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13755,9 +13755,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="193"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="210"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13826,9 +13826,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="191"/>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="194"/>
+      <c r="W9" s="208"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="211"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15718,13 +15718,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="Y24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
+      <selection pane="bottomRight" activeCell="AG47" sqref="AG47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15742,15 +15742,15 @@
     <col min="11" max="12" width="10.42578125" style="77" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="32" width="11.28515625" style="77" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" style="77" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" style="77" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="33" width="11.28515625" style="77" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" style="77" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" style="77" customWidth="1"/>
+    <col min="36" max="36" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:35" ht="13.5" thickBot="1">
+    <row r="1" spans="1:36" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:36" ht="13.5" thickBot="1">
       <c r="B2" s="228" t="s">
         <v>17</v>
       </c>
@@ -15758,29 +15758,29 @@
       <c r="D2" s="230"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="B3" s="231" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="232"/>
       <c r="D3" s="135">
-        <f>SUM(I8:AF8)</f>
-        <v>72</v>
+        <f>SUM(I8:AG8)</f>
+        <v>75</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" thickBot="1">
+    <row r="4" spans="1:36" ht="13.5" thickBot="1">
       <c r="B4" s="233" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="137">
-        <f>AI47</f>
-        <v>33.729925577751672</v>
+        <f>AJ47</f>
+        <v>33.45945945945946</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:36" ht="15">
       <c r="A6" s="235" t="s">
         <v>595</v>
       </c>
@@ -15865,17 +15865,20 @@
       <c r="AF6" s="139">
         <v>42449</v>
       </c>
-      <c r="AG6" s="236" t="s">
+      <c r="AG6" s="139">
+        <v>42454</v>
+      </c>
+      <c r="AH6" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="AH6" s="236" t="s">
+      <c r="AI6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="227" t="s">
+      <c r="AJ6" s="227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="235"/>
       <c r="B7" s="235"/>
       <c r="C7" s="235"/>
@@ -15958,11 +15961,14 @@
       <c r="AF7" s="142" t="s">
         <v>600</v>
       </c>
-      <c r="AG7" s="236"/>
+      <c r="AG7" s="142" t="s">
+        <v>600</v>
+      </c>
       <c r="AH7" s="236"/>
-      <c r="AI7" s="227"/>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AI7" s="236"/>
+      <c r="AJ7" s="227"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="235"/>
       <c r="B8" s="235"/>
       <c r="C8" s="235"/>
@@ -16047,11 +16053,14 @@
       <c r="AF8" s="159">
         <v>3</v>
       </c>
-      <c r="AG8" s="236"/>
+      <c r="AG8" s="159">
+        <v>3</v>
+      </c>
       <c r="AH8" s="236"/>
-      <c r="AI8" s="227"/>
-    </row>
-    <row r="9" spans="1:35" ht="13.5" thickBot="1">
+      <c r="AI8" s="236"/>
+      <c r="AJ8" s="227"/>
+    </row>
+    <row r="9" spans="1:36" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -16148,11 +16157,14 @@
       <c r="AF9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="AG9" s="236"/>
+      <c r="AG9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="AH9" s="236"/>
-      <c r="AI9" s="227"/>
-    </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+      <c r="AI9" s="236"/>
+      <c r="AJ9" s="227"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16247,20 +16259,23 @@
       <c r="AF10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG10" s="143">
-        <f t="shared" ref="AG10:AG45" si="0">COUNTIF(I10:AF10,"P")</f>
-        <v>24</v>
-      </c>
-      <c r="AH10" s="146">
-        <f>COUNTBLANK(I10:AF10)</f>
+      <c r="AG10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" s="143">
+        <f t="shared" ref="AH10:AH45" si="0">COUNTIF(I10:AG10,"P")</f>
+        <v>25</v>
+      </c>
+      <c r="AI10" s="146">
+        <f>COUNTBLANK(I10:AG10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="156">
-        <f>AG10*100/SUM(AG10:AH10)</f>
+      <c r="AJ10" s="156">
+        <f>AH10*100/SUM(AH10:AI10)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1">
+    <row r="11" spans="1:36" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16355,20 +16370,23 @@
       <c r="AF11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG11" s="143">
+      <c r="AG11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" s="143">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AH11" s="146">
-        <f t="shared" ref="AH11:AH46" si="1">COUNTBLANK(I11:AF11)</f>
+        <v>25</v>
+      </c>
+      <c r="AI11" s="146">
+        <f t="shared" ref="AI11:AI46" si="1">COUNTBLANK(I11:AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="156">
-        <f>AG11*100/SUM(AG11:AH11)</f>
+      <c r="AJ11" s="156">
+        <f>AH11*100/SUM(AH11:AI11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1">
+    <row r="12" spans="1:36" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16413,20 +16431,21 @@
       <c r="AD12" s="143"/>
       <c r="AE12" s="143"/>
       <c r="AF12" s="143"/>
-      <c r="AG12" s="143">
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH12" s="146">
+      <c r="AI12" s="146">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AI12" s="156">
-        <f t="shared" ref="AI12:AI46" si="2">AG12*100/SUM(AG12:AH12)</f>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="AJ12" s="156">
+        <f t="shared" ref="AJ12:AJ46" si="2">AH12*100/SUM(AH12:AI12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16517,20 +16536,23 @@
       <c r="AF13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG13" s="143">
+      <c r="AG13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH13" s="143">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AH13" s="146">
+        <v>23</v>
+      </c>
+      <c r="AI13" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI13" s="156">
+      <c r="AJ13" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16599,20 +16621,21 @@
       <c r="AD14" s="143"/>
       <c r="AE14" s="143"/>
       <c r="AF14" s="143"/>
-      <c r="AG14" s="143">
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH14" s="146">
+      <c r="AI14" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AI14" s="156">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="156">
         <f t="shared" si="2"/>
-        <v>52.173913043478258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16679,20 +16702,21 @@
       <c r="AD15" s="143"/>
       <c r="AE15" s="143"/>
       <c r="AF15" s="143"/>
-      <c r="AG15" s="143">
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH15" s="146">
+      <c r="AI15" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AI15" s="156">
+        <v>13</v>
+      </c>
+      <c r="AJ15" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="178" customFormat="1" ht="15.75" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="178" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="171">
         <v>7</v>
       </c>
@@ -16739,20 +16763,21 @@
       <c r="AD16" s="175"/>
       <c r="AE16" s="175"/>
       <c r="AF16" s="175"/>
-      <c r="AG16" s="143">
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="146">
+      <c r="AI16" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI16" s="177">
+        <v>25</v>
+      </c>
+      <c r="AJ16" s="177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1">
+    <row r="17" spans="1:36" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16839,20 +16864,21 @@
       <c r="AF17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG17" s="143">
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AH17" s="146">
+      <c r="AI17" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AI17" s="156">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16939,20 +16965,23 @@
       <c r="AF18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG18" s="143">
+      <c r="AG18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH18" s="143">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AH18" s="146">
+        <v>21</v>
+      </c>
+      <c r="AI18" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI18" s="156">
+      <c r="AJ18" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="15.75" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -17033,20 +17062,23 @@
       </c>
       <c r="AE19" s="143"/>
       <c r="AF19" s="143"/>
-      <c r="AG19" s="143">
+      <c r="AG19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH19" s="143">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AH19" s="146">
+        <v>18</v>
+      </c>
+      <c r="AI19" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI19" s="156">
+      <c r="AJ19" s="156">
         <f t="shared" si="2"/>
-        <v>70.833333333333329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" s="147" customFormat="1" ht="15.75" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -17103,20 +17135,21 @@
       <c r="AD20" s="143"/>
       <c r="AE20" s="143"/>
       <c r="AF20" s="143"/>
-      <c r="AG20" s="143">
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AH20" s="146">
+      <c r="AI20" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AI20" s="156">
+        <v>19</v>
+      </c>
+      <c r="AJ20" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -17169,20 +17202,21 @@
       <c r="AD21" s="143"/>
       <c r="AE21" s="143"/>
       <c r="AF21" s="143"/>
-      <c r="AG21" s="143">
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AH21" s="146">
+      <c r="AI21" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AI21" s="156">
+        <v>20</v>
+      </c>
+      <c r="AJ21" s="156">
         <f t="shared" si="2"/>
-        <v>20.833333333333332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -17277,20 +17311,23 @@
       <c r="AF22" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" s="143">
+      <c r="AG22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH22" s="143">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AH22" s="146">
+        <v>25</v>
+      </c>
+      <c r="AI22" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="156">
+      <c r="AJ22" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1">
+    <row r="23" spans="1:36" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -17345,20 +17382,21 @@
       <c r="AD23" s="143"/>
       <c r="AE23" s="143"/>
       <c r="AF23" s="143"/>
-      <c r="AG23" s="143">
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AH23" s="146">
+      <c r="AI23" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AI23" s="156">
+        <v>20</v>
+      </c>
+      <c r="AJ23" s="156">
         <f t="shared" si="2"/>
-        <v>20.833333333333332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15.75" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -17421,20 +17459,23 @@
       <c r="AD24" s="143"/>
       <c r="AE24" s="143"/>
       <c r="AF24" s="143"/>
-      <c r="AG24" s="143">
+      <c r="AG24" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH24" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AH24" s="146">
+        <v>11</v>
+      </c>
+      <c r="AI24" s="146">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AI24" s="156">
+      <c r="AJ24" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="15.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17517,20 +17558,23 @@
       </c>
       <c r="AE25" s="143"/>
       <c r="AF25" s="143"/>
-      <c r="AG25" s="143">
+      <c r="AG25" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH25" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AH25" s="146">
+        <v>19</v>
+      </c>
+      <c r="AI25" s="146">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI25" s="156">
+      <c r="AJ25" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="15.75" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17613,20 +17657,23 @@
       </c>
       <c r="AE26" s="143"/>
       <c r="AF26" s="143"/>
-      <c r="AG26" s="143">
+      <c r="AG26" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH26" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AH26" s="146">
+        <v>19</v>
+      </c>
+      <c r="AI26" s="146">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI26" s="156">
+      <c r="AJ26" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="15.75" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17685,20 +17732,23 @@
       <c r="AF27" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG27" s="143">
+      <c r="AG27" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH27" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AH27" s="146">
+        <v>7</v>
+      </c>
+      <c r="AI27" s="146">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AI27" s="156">
+      <c r="AJ27" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="15.75" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17741,20 +17791,21 @@
       <c r="AD28" s="143"/>
       <c r="AE28" s="143"/>
       <c r="AF28" s="143"/>
-      <c r="AG28" s="143">
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH28" s="146">
+      <c r="AI28" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI28" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ28" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15.75" thickBot="1">
+    <row r="29" spans="1:36" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17833,20 +17884,21 @@
       <c r="AF29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG29" s="143">
-        <f>COUNTIF(I29:AF29,"P")</f>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="143">
+        <f>COUNTIF(I29:AG29,"P")</f>
         <v>16</v>
       </c>
-      <c r="AH29" s="146">
+      <c r="AI29" s="146">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AI29" s="156">
+        <v>9</v>
+      </c>
+      <c r="AJ29" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="15.75" thickBot="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17899,20 +17951,21 @@
       <c r="AD30" s="143"/>
       <c r="AE30" s="143"/>
       <c r="AF30" s="143"/>
-      <c r="AG30" s="143">
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AH30" s="146">
+      <c r="AI30" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AI30" s="156">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="156">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="15.75" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17955,20 +18008,21 @@
       <c r="AD31" s="143"/>
       <c r="AE31" s="143"/>
       <c r="AF31" s="143"/>
-      <c r="AG31" s="143">
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH31" s="146">
+      <c r="AI31" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI31" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15.75" thickBot="1">
+    <row r="32" spans="1:36" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -18015,20 +18069,21 @@
       <c r="AD32" s="143"/>
       <c r="AE32" s="143"/>
       <c r="AF32" s="143"/>
-      <c r="AG32" s="143">
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH32" s="146">
+      <c r="AI32" s="146">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AI32" s="156">
+        <v>24</v>
+      </c>
+      <c r="AJ32" s="156">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="15.75" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -18089,20 +18144,21 @@
       <c r="AD33" s="143"/>
       <c r="AE33" s="143"/>
       <c r="AF33" s="143"/>
-      <c r="AG33" s="143">
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AH33" s="146">
+      <c r="AI33" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AI33" s="156">
+        <v>16</v>
+      </c>
+      <c r="AJ33" s="156">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="15.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -18145,20 +18201,21 @@
       <c r="AD34" s="143"/>
       <c r="AE34" s="143"/>
       <c r="AF34" s="143"/>
-      <c r="AG34" s="143">
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH34" s="146">
+      <c r="AI34" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI34" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ34" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15.75" thickBot="1">
+    <row r="35" spans="1:36" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -18203,20 +18260,21 @@
       <c r="AD35" s="143"/>
       <c r="AE35" s="143"/>
       <c r="AF35" s="143"/>
-      <c r="AG35" s="143">
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH35" s="146">
+      <c r="AI35" s="146">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AI35" s="156">
+        <v>24</v>
+      </c>
+      <c r="AJ35" s="156">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="15.75" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -18261,20 +18319,21 @@
       <c r="AD36" s="143"/>
       <c r="AE36" s="143"/>
       <c r="AF36" s="143"/>
-      <c r="AG36" s="143">
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH36" s="146">
+      <c r="AI36" s="146">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AI36" s="156">
+        <v>24</v>
+      </c>
+      <c r="AJ36" s="156">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="15.75" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -18317,20 +18376,21 @@
       <c r="AD37" s="143"/>
       <c r="AE37" s="143"/>
       <c r="AF37" s="143"/>
-      <c r="AG37" s="143">
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="146">
+      <c r="AI37" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI37" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ37" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15.75" thickBot="1">
+    <row r="38" spans="1:36" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -18373,20 +18433,21 @@
       <c r="AD38" s="143"/>
       <c r="AE38" s="143"/>
       <c r="AF38" s="143"/>
-      <c r="AG38" s="143">
+      <c r="AG38" s="143"/>
+      <c r="AH38" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="146">
+      <c r="AI38" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI38" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ38" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15.75" thickBot="1">
+    <row r="39" spans="1:36" ht="15.75" thickBot="1">
       <c r="A39" s="144">
         <v>30</v>
       </c>
@@ -18429,20 +18490,21 @@
       <c r="AD39" s="143"/>
       <c r="AE39" s="143"/>
       <c r="AF39" s="143"/>
-      <c r="AG39" s="143">
+      <c r="AG39" s="143"/>
+      <c r="AH39" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="146">
+      <c r="AI39" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI39" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ39" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15.75" thickBot="1">
+    <row r="40" spans="1:36" ht="15.75" thickBot="1">
       <c r="A40" s="144">
         <v>31</v>
       </c>
@@ -18497,20 +18559,21 @@
       <c r="AD40" s="143"/>
       <c r="AE40" s="143"/>
       <c r="AF40" s="143"/>
-      <c r="AG40" s="143">
+      <c r="AG40" s="143"/>
+      <c r="AH40" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AH40" s="146">
+      <c r="AI40" s="146">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AI40" s="156">
+        <v>21</v>
+      </c>
+      <c r="AJ40" s="156">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="15.75" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="15.75" thickBot="1">
       <c r="A41" s="144">
         <v>32</v>
       </c>
@@ -18553,20 +18616,21 @@
       <c r="AD41" s="143"/>
       <c r="AE41" s="143"/>
       <c r="AF41" s="143"/>
-      <c r="AG41" s="143">
-        <f>COUNTIF(I41:AF41,"P")</f>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143">
+        <f>COUNTIF(I41:AG41,"P")</f>
         <v>0</v>
       </c>
-      <c r="AH41" s="146">
+      <c r="AI41" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI41" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ41" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15.75" thickBot="1">
+    <row r="42" spans="1:36" ht="15.75" thickBot="1">
       <c r="A42" s="144">
         <v>33</v>
       </c>
@@ -18645,20 +18709,21 @@
       <c r="AF42" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AG42" s="143">
+      <c r="AG42" s="143"/>
+      <c r="AH42" s="143">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH42" s="146">
+      <c r="AI42" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AI42" s="156">
+        <v>8</v>
+      </c>
+      <c r="AJ42" s="156">
         <f t="shared" si="2"/>
-        <v>70.833333333333329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" ht="15.75" thickBot="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="15.75" thickBot="1">
       <c r="A43" s="144">
         <v>34</v>
       </c>
@@ -18709,20 +18774,21 @@
       <c r="AD43" s="143"/>
       <c r="AE43" s="143"/>
       <c r="AF43" s="143"/>
-      <c r="AG43" s="143">
+      <c r="AG43" s="143"/>
+      <c r="AH43" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AH43" s="146">
+      <c r="AI43" s="146">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AI43" s="156">
+        <v>22</v>
+      </c>
+      <c r="AJ43" s="156">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" ht="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="15">
       <c r="A44" s="144">
         <v>35</v>
       </c>
@@ -18757,20 +18823,21 @@
       <c r="AD44" s="143"/>
       <c r="AE44" s="143"/>
       <c r="AF44" s="143"/>
-      <c r="AG44" s="143">
+      <c r="AG44" s="143"/>
+      <c r="AH44" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH44" s="146">
+      <c r="AI44" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI44" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ44" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15">
+    <row r="45" spans="1:36" ht="15">
       <c r="A45" s="144">
         <v>36</v>
       </c>
@@ -18805,20 +18872,21 @@
       <c r="AD45" s="143"/>
       <c r="AE45" s="143"/>
       <c r="AF45" s="143"/>
-      <c r="AG45" s="143">
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH45" s="146">
+      <c r="AI45" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI45" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ45" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15">
+    <row r="46" spans="1:36" ht="15">
       <c r="A46" s="144">
         <v>37</v>
       </c>
@@ -18853,20 +18921,21 @@
       <c r="AD46" s="143"/>
       <c r="AE46" s="143"/>
       <c r="AF46" s="143"/>
-      <c r="AG46" s="143">
-        <f>COUNTIF(I46:AF46,"P")</f>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="143">
+        <f>COUNTIF(I46:AG46,"P")</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="146">
+      <c r="AI46" s="146">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AI46" s="156">
+        <v>25</v>
+      </c>
+      <c r="AJ46" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15">
+    <row r="47" spans="1:36" ht="15">
       <c r="A47" s="144">
         <v>38</v>
       </c>
@@ -18956,23 +19025,26 @@
       <c r="AF47" s="149">
         <v>9</v>
       </c>
-      <c r="AG47" s="149"/>
-      <c r="AH47" s="150"/>
-      <c r="AI47" s="157">
-        <f>AVERAGE(AI10:AI46)</f>
-        <v>33.729925577751672</v>
+      <c r="AG47" s="149">
+        <v>10</v>
+      </c>
+      <c r="AH47" s="149"/>
+      <c r="AI47" s="150"/>
+      <c r="AJ47" s="157">
+        <f>AVERAGE(AJ10:AJ46)</f>
+        <v>33.45945945945946</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AI47"/>
+  <autoFilter ref="A9:AJ47"/>
   <mergeCells count="7">
-    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="AG6:AG9"/>
     <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AI6:AI9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
